--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_20_37.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_20_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2189494.029665079</v>
+        <v>2188827.412228659</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>392548.0828146758</v>
+        <v>392548.082814676</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058538</v>
+        <v>632041.4518058542</v>
       </c>
     </row>
     <row r="9">
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>81.15405778268008</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>84.54481721446589</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>84.54481721446552</v>
       </c>
       <c r="I11" t="n">
-        <v>36.42873081279463</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>23.12798498931284</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>18.30111863217985</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>46.03812530998746</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>84.54481721446552</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>84.54481721446552</v>
       </c>
       <c r="X11" t="n">
-        <v>84.54481721446589</v>
+        <v>10.1278310603339</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>84.54481721446589</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1497,16 +1497,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>84.54481721446552</v>
       </c>
       <c r="T12" t="n">
         <v>10.83321277868782</v>
       </c>
       <c r="U12" t="n">
-        <v>33.11619900411933</v>
+        <v>47.07368614265927</v>
       </c>
       <c r="V12" t="n">
-        <v>36.5374791892375</v>
+        <v>84.54481721446552</v>
       </c>
       <c r="W12" t="n">
         <v>62.59314185084685</v>
@@ -1515,7 +1515,7 @@
         <v>13.20147271330586</v>
       </c>
       <c r="Y12" t="n">
-        <v>81.23766957162988</v>
+        <v>19.27284440786087</v>
       </c>
     </row>
     <row r="13">
@@ -1582,13 +1582,13 @@
         <v>19.62677120258687</v>
       </c>
       <c r="U13" t="n">
-        <v>84.54481721446589</v>
+        <v>84.54481721446552</v>
       </c>
       <c r="V13" t="n">
         <v>40.99757345828516</v>
       </c>
       <c r="W13" t="n">
-        <v>84.54481721446589</v>
+        <v>84.54481721446552</v>
       </c>
       <c r="X13" t="n">
         <v>17.80801368207779</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>84.54481721446589</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>74.4670750025015</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>84.54481721446589</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>84.54481721446589</v>
+        <v>5.300964703201219</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>23.12798498931284</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>46.03812530998746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>84.54481721446591</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>56.88389690244388</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.037534323606071</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>10.83321277868782</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="U15" t="n">
         <v>33.11619900411933</v>
       </c>
       <c r="V15" t="n">
-        <v>84.54481721446589</v>
+        <v>36.5374791892375</v>
       </c>
       <c r="W15" t="n">
-        <v>62.59314185084685</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="X15" t="n">
-        <v>84.54481721446589</v>
+        <v>13.20147271330586</v>
       </c>
       <c r="Y15" t="n">
-        <v>46.43180425970734</v>
+        <v>19.27284440786087</v>
       </c>
     </row>
     <row r="16">
@@ -1819,13 +1819,13 @@
         <v>19.62677120258687</v>
       </c>
       <c r="U16" t="n">
-        <v>84.54481721446589</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="V16" t="n">
         <v>40.99757345828516</v>
       </c>
       <c r="W16" t="n">
-        <v>84.54481721446589</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="X16" t="n">
         <v>17.80801368207779</v>
@@ -1847,7 +1847,7 @@
         <v>14.77260506084627</v>
       </c>
       <c r="D17" t="n">
-        <v>2.339267321894995</v>
+        <v>2.339267321895501</v>
       </c>
       <c r="E17" t="n">
         <v>36.04601974130361</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>74.46707500250157</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>74.46707500250155</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="S18" t="n">
-        <v>84.54481721446589</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>84.54481721446589</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>84.54481721446589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>84.54481721446589</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>74.46707500250157</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>84.54481721446589</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2217,16 +2217,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="W21" t="n">
-        <v>74.46707500250155</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="Y21" t="n">
-        <v>84.54481721446589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>38.65434805750078</v>
+        <v>38.65434805750084</v>
       </c>
       <c r="C23" t="n">
-        <v>14.77260506084627</v>
+        <v>14.77260506084633</v>
       </c>
       <c r="D23" t="n">
-        <v>2.339267321894738</v>
+        <v>2.339267321894795</v>
       </c>
       <c r="E23" t="n">
-        <v>36.04601974130361</v>
+        <v>36.04601974130367</v>
       </c>
       <c r="F23" t="n">
-        <v>67.76635731968094</v>
+        <v>67.76635731968099</v>
       </c>
       <c r="G23" t="n">
-        <v>83.39309993609675</v>
+        <v>83.39309993609683</v>
       </c>
       <c r="H23" t="n">
-        <v>11.46376063065037</v>
+        <v>11.46376063065043</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>2.463571505434345</v>
+        <v>2.463571505434402</v>
       </c>
       <c r="X23" t="n">
-        <v>24.34982197437358</v>
+        <v>24.34982197437364</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.85267509811734</v>
+        <v>46.8526750981174</v>
       </c>
     </row>
     <row r="24">
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>84.54481721446587</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>84.54481721446587</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>84.54481721446587</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>51.8594329553531</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>74.46707500250157</v>
       </c>
       <c r="Y24" t="n">
-        <v>22.60764204714839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2558,22 +2558,22 @@
         <v>137.3650538111394</v>
       </c>
       <c r="D26" t="n">
-        <v>124.9317160721879</v>
+        <v>124.9317160721878</v>
       </c>
       <c r="E26" t="n">
         <v>158.6384684915967</v>
       </c>
       <c r="F26" t="n">
-        <v>190.3588060699741</v>
+        <v>190.358806069974</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9855486863899</v>
+        <v>205.9855486863898</v>
       </c>
       <c r="H26" t="n">
         <v>134.0562093809435</v>
       </c>
       <c r="I26" t="n">
-        <v>27.69972896891997</v>
+        <v>27.69972896891994</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39898314543817</v>
+        <v>14.39898314543814</v>
       </c>
       <c r="T26" t="n">
-        <v>9.572116788305182</v>
+        <v>9.572116788305152</v>
       </c>
       <c r="U26" t="n">
-        <v>37.30912346611279</v>
+        <v>37.30912346611277</v>
       </c>
       <c r="V26" t="n">
         <v>108.0393400391126</v>
       </c>
       <c r="W26" t="n">
-        <v>125.0560202557275</v>
+        <v>125.0560202557274</v>
       </c>
       <c r="X26" t="n">
         <v>146.9422707246667</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.4451238484105</v>
+        <v>169.4451238484104</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.037534323606071</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.02330665098881</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T27" t="n">
-        <v>2.104210934813152</v>
+        <v>2.104210934813124</v>
       </c>
       <c r="U27" t="n">
-        <v>24.38719716024466</v>
+        <v>24.38719716024464</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>53.86414000697218</v>
+        <v>53.86414000697215</v>
       </c>
       <c r="X27" t="n">
-        <v>213.6807560136768</v>
+        <v>4.472470869431163</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>10.54384256398617</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.50238087092335</v>
+        <v>22.50238087092332</v>
       </c>
       <c r="T28" t="n">
-        <v>10.8977693587122</v>
+        <v>10.89776935871217</v>
       </c>
       <c r="U28" t="n">
-        <v>75.81581537059124</v>
+        <v>75.81581537059121</v>
       </c>
       <c r="V28" t="n">
-        <v>32.26857161441049</v>
+        <v>32.26857161441046</v>
       </c>
       <c r="W28" t="n">
-        <v>77.47026351929591</v>
+        <v>77.47026351929588</v>
       </c>
       <c r="X28" t="n">
-        <v>9.079011838203115</v>
+        <v>9.079011838203087</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.300829244129005</v>
+        <v>4.300829244128977</v>
       </c>
     </row>
     <row r="29">
@@ -2795,13 +2795,13 @@
         <v>137.3650538111394</v>
       </c>
       <c r="D29" t="n">
-        <v>124.9317160721879</v>
+        <v>124.9317160721878</v>
       </c>
       <c r="E29" t="n">
         <v>158.6384684915967</v>
       </c>
       <c r="F29" t="n">
-        <v>190.3588060699741</v>
+        <v>190.358806069974</v>
       </c>
       <c r="G29" t="n">
         <v>205.9855486863899</v>
@@ -2810,7 +2810,7 @@
         <v>134.0562093809435</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69972896891997</v>
+        <v>27.69972896891994</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.39898314543817</v>
+        <v>14.39898314543815</v>
       </c>
       <c r="T29" t="n">
-        <v>9.572116788305182</v>
+        <v>9.572116788305154</v>
       </c>
       <c r="U29" t="n">
-        <v>37.30912346611279</v>
+        <v>37.30912346611277</v>
       </c>
       <c r="V29" t="n">
         <v>108.0393400391126</v>
       </c>
       <c r="W29" t="n">
-        <v>125.0560202557275</v>
+        <v>125.0560202557274</v>
       </c>
       <c r="X29" t="n">
         <v>146.9422707246667</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.4451238484105</v>
+        <v>169.4451238484104</v>
       </c>
     </row>
     <row r="30">
@@ -2880,10 +2880,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7380872222379</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.037534323606071</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.104210934813152</v>
+        <v>205.2749617554529</v>
       </c>
       <c r="U30" t="n">
-        <v>138.8743995323634</v>
+        <v>24.38719716024464</v>
       </c>
       <c r="V30" t="n">
-        <v>27.80847734536283</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.86414000697218</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>4.472470869431191</v>
+        <v>4.472470869431163</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>10.54384256398617</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.50238087092335</v>
+        <v>22.50238087092332</v>
       </c>
       <c r="T31" t="n">
-        <v>10.8977693587122</v>
+        <v>10.89776935871217</v>
       </c>
       <c r="U31" t="n">
-        <v>75.81581537059124</v>
+        <v>75.81581537059121</v>
       </c>
       <c r="V31" t="n">
-        <v>32.26857161441049</v>
+        <v>32.26857161441046</v>
       </c>
       <c r="W31" t="n">
-        <v>77.47026351929591</v>
+        <v>77.47026351929588</v>
       </c>
       <c r="X31" t="n">
-        <v>9.079011838203115</v>
+        <v>9.079011838203087</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.300829244129005</v>
+        <v>4.300829244128977</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>134.0562093809435</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69972896891994</v>
+        <v>27.69972896891993</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.39898314543814</v>
+        <v>14.39898314543815</v>
       </c>
       <c r="T32" t="n">
-        <v>9.572116788305152</v>
+        <v>9.572116788305154</v>
       </c>
       <c r="U32" t="n">
         <v>37.30912346611277</v>
@@ -3105,19 +3105,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>145.0658462480181</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>68.85559136847999</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3150,10 +3150,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.037534323606071</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.3151594521598</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3165,10 +3165,10 @@
         <v>24.38719716024464</v>
       </c>
       <c r="V33" t="n">
-        <v>27.8084773453628</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>53.86414000697215</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
         <v>4.472470869431163</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>137.8521485991665</v>
+        <v>137.8521485991667</v>
       </c>
       <c r="C35" t="n">
-        <v>113.970405602512</v>
+        <v>113.9704056025122</v>
       </c>
       <c r="D35" t="n">
-        <v>101.5370678635605</v>
+        <v>101.5370678635606</v>
       </c>
       <c r="E35" t="n">
-        <v>135.2438202829694</v>
+        <v>135.2438202829695</v>
       </c>
       <c r="F35" t="n">
-        <v>166.9641578613467</v>
+        <v>166.9641578613468</v>
       </c>
       <c r="G35" t="n">
-        <v>182.5909004777625</v>
+        <v>182.5909004777627</v>
       </c>
       <c r="H35" t="n">
-        <v>110.6615611723161</v>
+        <v>110.6615611723163</v>
       </c>
       <c r="I35" t="n">
-        <v>4.305080760292583</v>
+        <v>4.305080760292725</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.91447525748541</v>
+        <v>13.91447525748555</v>
       </c>
       <c r="V35" t="n">
-        <v>84.64469183048521</v>
+        <v>84.64469183048536</v>
       </c>
       <c r="W35" t="n">
-        <v>101.6613720471001</v>
+        <v>101.6613720471002</v>
       </c>
       <c r="X35" t="n">
-        <v>123.5476225160393</v>
+        <v>123.5476225160395</v>
       </c>
       <c r="Y35" t="n">
-        <v>146.0504756397831</v>
+        <v>146.0504756397832</v>
       </c>
     </row>
     <row r="36">
@@ -3345,22 +3345,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>98.05515578997051</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3399,16 +3399,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0.9925489516172765</v>
+        <v>0.9925489516174186</v>
       </c>
       <c r="V36" t="n">
-        <v>4.413829136735444</v>
+        <v>187.4612449991761</v>
       </c>
       <c r="W36" t="n">
-        <v>30.46949179834479</v>
+        <v>30.46949179834493</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>52.42116716196385</v>
+        <v>52.42116716196399</v>
       </c>
       <c r="V37" t="n">
-        <v>8.873923405783103</v>
+        <v>8.873923405783245</v>
       </c>
       <c r="W37" t="n">
-        <v>54.07561531066852</v>
+        <v>54.07561531066867</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>137.8521485991665</v>
+        <v>137.8521485991666</v>
       </c>
       <c r="C38" t="n">
-        <v>113.970405602512</v>
+        <v>113.9704056025121</v>
       </c>
       <c r="D38" t="n">
-        <v>101.5370678635604</v>
+        <v>101.5370678635606</v>
       </c>
       <c r="E38" t="n">
-        <v>135.2438202829693</v>
+        <v>135.2438202829694</v>
       </c>
       <c r="F38" t="n">
-        <v>166.9641578613466</v>
+        <v>166.9641578613468</v>
       </c>
       <c r="G38" t="n">
-        <v>182.5909004777624</v>
+        <v>182.5909004777626</v>
       </c>
       <c r="H38" t="n">
-        <v>110.6615611723161</v>
+        <v>110.6615611723162</v>
       </c>
       <c r="I38" t="n">
-        <v>4.305080760292526</v>
+        <v>4.305080760292668</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.91447525748535</v>
+        <v>13.9144752574855</v>
       </c>
       <c r="V38" t="n">
-        <v>84.64469183048516</v>
+        <v>84.6446918304853</v>
       </c>
       <c r="W38" t="n">
-        <v>101.6613720471</v>
+        <v>101.6613720471002</v>
       </c>
       <c r="X38" t="n">
-        <v>123.5476225160393</v>
+        <v>123.5476225160394</v>
       </c>
       <c r="Y38" t="n">
-        <v>146.050475639783</v>
+        <v>146.0504756397832</v>
       </c>
     </row>
     <row r="39">
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>44.85216371776485</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3630,19 +3630,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>58.25372150577895</v>
       </c>
       <c r="U39" t="n">
-        <v>0.9925489516172197</v>
+        <v>237.2276407302841</v>
       </c>
       <c r="V39" t="n">
-        <v>4.413829136735387</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>30.46949179834473</v>
+        <v>30.46949179834488</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>52.42116716196379</v>
+        <v>52.42116716196394</v>
       </c>
       <c r="V40" t="n">
-        <v>8.873923405783046</v>
+        <v>8.873923405783188</v>
       </c>
       <c r="W40" t="n">
-        <v>54.07561531066847</v>
+        <v>54.07561531066861</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>125.6725816482287</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3861,16 +3861,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.037534323606071</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>134.3151594521598</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9446545048526</v>
+        <v>26.33917158707791</v>
       </c>
       <c r="U42" t="n">
         <v>237.2276407302841</v>
@@ -3879,13 +3879,13 @@
         <v>4.413829136735444</v>
       </c>
       <c r="W42" t="n">
-        <v>35.45811136926798</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -3995,7 +3995,7 @@
         <v>110.6615611723161</v>
       </c>
       <c r="I44" t="n">
-        <v>4.305080760292569</v>
+        <v>4.305080760292583</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4068,16 +4068,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7380872222379</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>125.6725816482287</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>107.1390224876152</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>51.8594329553531</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,19 +4104,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>52.54942518633535</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9446545048526</v>
       </c>
       <c r="U45" t="n">
-        <v>0.9925489516172765</v>
+        <v>140.0213051122116</v>
       </c>
       <c r="V45" t="n">
         <v>4.413829136735444</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>30.46949179834479</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>210.9328841750771</v>
+        <v>92.16239064429415</v>
       </c>
       <c r="C11" t="n">
-        <v>210.9328841750771</v>
+        <v>92.16239064429415</v>
       </c>
       <c r="D11" t="n">
-        <v>210.9328841750771</v>
+        <v>92.16239064429415</v>
       </c>
       <c r="E11" t="n">
-        <v>210.9328841750771</v>
+        <v>92.16239064429415</v>
       </c>
       <c r="F11" t="n">
-        <v>128.9590884349962</v>
+        <v>92.16239064429415</v>
       </c>
       <c r="G11" t="n">
-        <v>43.56028316785891</v>
+        <v>92.16239064429415</v>
       </c>
       <c r="H11" t="n">
-        <v>43.56028316785891</v>
+        <v>6.763585377157242</v>
       </c>
       <c r="I11" t="n">
-        <v>6.763585377157272</v>
+        <v>6.763585377157242</v>
       </c>
       <c r="J11" t="n">
-        <v>6.763585377157272</v>
+        <v>6.763585377157242</v>
       </c>
       <c r="K11" t="n">
-        <v>6.763585377157272</v>
+        <v>86.62431280449078</v>
       </c>
       <c r="L11" t="n">
-        <v>55.38741258664086</v>
+        <v>135.2481400139744</v>
       </c>
       <c r="M11" t="n">
-        <v>138.3667488501955</v>
+        <v>218.227476277529</v>
       </c>
       <c r="N11" t="n">
-        <v>215.8463415097251</v>
+        <v>301.9268453198499</v>
       </c>
       <c r="O11" t="n">
-        <v>252.0987650477374</v>
+        <v>338.1792688578621</v>
       </c>
       <c r="P11" t="n">
-        <v>252.0987650477374</v>
+        <v>338.1792688578621</v>
       </c>
       <c r="Q11" t="n">
-        <v>328.2841766533307</v>
+        <v>338.1792688578621</v>
       </c>
       <c r="R11" t="n">
-        <v>338.1792688578636</v>
+        <v>338.1792688578621</v>
       </c>
       <c r="S11" t="n">
-        <v>314.8176678585577</v>
+        <v>338.1792688578621</v>
       </c>
       <c r="T11" t="n">
-        <v>296.3316894422144</v>
+        <v>319.6932904415188</v>
       </c>
       <c r="U11" t="n">
-        <v>296.3316894422144</v>
+        <v>273.1901335627436</v>
       </c>
       <c r="V11" t="n">
-        <v>296.3316894422144</v>
+        <v>187.7913282956067</v>
       </c>
       <c r="W11" t="n">
-        <v>296.3316894422144</v>
+        <v>102.3925230284698</v>
       </c>
       <c r="X11" t="n">
-        <v>210.9328841750771</v>
+        <v>92.16239064429415</v>
       </c>
       <c r="Y11" t="n">
-        <v>210.9328841750771</v>
+        <v>92.16239064429415</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>92.16239064429455</v>
+        <v>6.763585377157242</v>
       </c>
       <c r="C12" t="n">
-        <v>6.763585377157272</v>
+        <v>6.763585377157242</v>
       </c>
       <c r="D12" t="n">
-        <v>6.763585377157272</v>
+        <v>6.763585377157242</v>
       </c>
       <c r="E12" t="n">
-        <v>6.763585377157272</v>
+        <v>6.763585377157242</v>
       </c>
       <c r="F12" t="n">
-        <v>6.763585377157272</v>
+        <v>6.763585377157242</v>
       </c>
       <c r="G12" t="n">
-        <v>6.763585377157272</v>
+        <v>6.763585377157242</v>
       </c>
       <c r="H12" t="n">
-        <v>6.763585377157272</v>
+        <v>6.763585377157242</v>
       </c>
       <c r="I12" t="n">
-        <v>6.763585377157272</v>
+        <v>6.763585377157242</v>
       </c>
       <c r="J12" t="n">
-        <v>6.763585377157272</v>
+        <v>6.763585377157242</v>
       </c>
       <c r="K12" t="n">
-        <v>45.76878079825735</v>
+        <v>6.763585377157242</v>
       </c>
       <c r="L12" t="n">
-        <v>45.76878079825735</v>
+        <v>90.46295441947811</v>
       </c>
       <c r="M12" t="n">
-        <v>87.08116173089989</v>
+        <v>174.162323461799</v>
       </c>
       <c r="N12" t="n">
-        <v>170.7805307732211</v>
+        <v>254.4798998155412</v>
       </c>
       <c r="O12" t="n">
-        <v>254.4798998155424</v>
+        <v>254.4798998155412</v>
       </c>
       <c r="P12" t="n">
-        <v>338.1792688578636</v>
+        <v>338.1792688578621</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.0807493390695</v>
+        <v>332.0807493390681</v>
       </c>
       <c r="R12" t="n">
-        <v>332.0807493390695</v>
+        <v>332.0807493390681</v>
       </c>
       <c r="S12" t="n">
-        <v>332.0807493390695</v>
+        <v>246.6819440719312</v>
       </c>
       <c r="T12" t="n">
-        <v>321.1381101686778</v>
+        <v>235.7393049015394</v>
       </c>
       <c r="U12" t="n">
-        <v>287.6874041039108</v>
+        <v>188.1901269796614</v>
       </c>
       <c r="V12" t="n">
-        <v>250.7808594683174</v>
+        <v>102.7913217125245</v>
       </c>
       <c r="W12" t="n">
-        <v>187.5554636593812</v>
+        <v>39.56592590358829</v>
       </c>
       <c r="X12" t="n">
-        <v>174.22064273685</v>
+        <v>26.23110498105711</v>
       </c>
       <c r="Y12" t="n">
-        <v>92.16239064429455</v>
+        <v>6.763585377157242</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.99316122774196</v>
+        <v>6.763585377157242</v>
       </c>
       <c r="C13" t="n">
-        <v>32.99316122774196</v>
+        <v>6.763585377157242</v>
       </c>
       <c r="D13" t="n">
-        <v>91.33266478844145</v>
+        <v>6.763585377157242</v>
       </c>
       <c r="E13" t="n">
-        <v>91.33266478844145</v>
+        <v>6.763585377157242</v>
       </c>
       <c r="F13" t="n">
-        <v>91.33266478844145</v>
+        <v>6.763585377157242</v>
       </c>
       <c r="G13" t="n">
-        <v>91.33266478844145</v>
+        <v>6.763585377157242</v>
       </c>
       <c r="H13" t="n">
-        <v>91.33266478844145</v>
+        <v>6.763585377157242</v>
       </c>
       <c r="I13" t="n">
-        <v>91.33266478844145</v>
+        <v>6.763585377157242</v>
       </c>
       <c r="J13" t="n">
-        <v>91.33266478844145</v>
+        <v>6.763585377157242</v>
       </c>
       <c r="K13" t="n">
-        <v>91.33266478844145</v>
+        <v>6.763585377157242</v>
       </c>
       <c r="L13" t="n">
-        <v>91.33266478844145</v>
+        <v>6.763585377157242</v>
       </c>
       <c r="M13" t="n">
-        <v>91.33266478844145</v>
+        <v>57.51690045330118</v>
       </c>
       <c r="N13" t="n">
-        <v>140.2983861133605</v>
+        <v>57.51690045330118</v>
       </c>
       <c r="O13" t="n">
-        <v>223.9977551556817</v>
+        <v>141.216269495622</v>
       </c>
       <c r="P13" t="n">
-        <v>223.9977551556817</v>
+        <v>224.9156385379429</v>
       </c>
       <c r="Q13" t="n">
-        <v>300.5762136864946</v>
+        <v>301.4940970687558</v>
       </c>
       <c r="R13" t="n">
-        <v>301.4940970687566</v>
+        <v>301.4940970687558</v>
       </c>
       <c r="S13" t="n">
-        <v>269.9472458416878</v>
+        <v>269.947245841687</v>
       </c>
       <c r="T13" t="n">
-        <v>250.1222244249334</v>
+        <v>250.1222244249327</v>
       </c>
       <c r="U13" t="n">
-        <v>164.7234191577962</v>
+        <v>164.7234191577958</v>
       </c>
       <c r="V13" t="n">
-        <v>123.311728795892</v>
+        <v>123.3117287958916</v>
       </c>
       <c r="W13" t="n">
-        <v>37.9129235287547</v>
+        <v>37.91292352875467</v>
       </c>
       <c r="X13" t="n">
-        <v>19.92503092059533</v>
+        <v>19.9250309205953</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.763585377157272</v>
+        <v>6.763585377157242</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>252.7804635907263</v>
+        <v>12.11809517837068</v>
       </c>
       <c r="C14" t="n">
-        <v>252.7804635907263</v>
+        <v>12.11809517837068</v>
       </c>
       <c r="D14" t="n">
-        <v>252.7804635907263</v>
+        <v>12.11809517837068</v>
       </c>
       <c r="E14" t="n">
-        <v>252.7804635907263</v>
+        <v>12.11809517837068</v>
       </c>
       <c r="F14" t="n">
-        <v>177.5611959114318</v>
+        <v>12.11809517837068</v>
       </c>
       <c r="G14" t="n">
-        <v>92.16239064429455</v>
+        <v>12.11809517837068</v>
       </c>
       <c r="H14" t="n">
         <v>6.763585377157272</v>
@@ -5291,10 +5291,10 @@
         <v>215.8463415097251</v>
       </c>
       <c r="O14" t="n">
-        <v>252.0987650477374</v>
+        <v>254.4798998155424</v>
       </c>
       <c r="P14" t="n">
-        <v>254.4798998155424</v>
+        <v>338.1792688578636</v>
       </c>
       <c r="Q14" t="n">
         <v>338.1792688578636</v>
@@ -5303,25 +5303,25 @@
         <v>338.1792688578636</v>
       </c>
       <c r="S14" t="n">
-        <v>338.1792688578636</v>
+        <v>314.8176678585577</v>
       </c>
       <c r="T14" t="n">
-        <v>338.1792688578636</v>
+        <v>314.8176678585577</v>
       </c>
       <c r="U14" t="n">
-        <v>338.1792688578636</v>
+        <v>268.3145109797825</v>
       </c>
       <c r="V14" t="n">
-        <v>338.1792688578636</v>
+        <v>268.3145109797825</v>
       </c>
       <c r="W14" t="n">
-        <v>338.1792688578636</v>
+        <v>182.9157057126453</v>
       </c>
       <c r="X14" t="n">
-        <v>338.1792688578636</v>
+        <v>97.51690044550797</v>
       </c>
       <c r="Y14" t="n">
-        <v>338.1792688578636</v>
+        <v>12.11809517837068</v>
       </c>
     </row>
     <row r="15">
@@ -5358,49 +5358,49 @@
         <v>6.763585377157272</v>
       </c>
       <c r="K15" t="n">
-        <v>6.763585377157272</v>
+        <v>45.76878079825735</v>
       </c>
       <c r="L15" t="n">
-        <v>6.763585377157272</v>
+        <v>129.4681498405786</v>
       </c>
       <c r="M15" t="n">
-        <v>87.08116173089989</v>
+        <v>213.1675188828999</v>
       </c>
       <c r="N15" t="n">
-        <v>170.7805307732211</v>
+        <v>213.1675188828999</v>
       </c>
       <c r="O15" t="n">
-        <v>254.4798998155424</v>
+        <v>296.8668879252211</v>
       </c>
       <c r="P15" t="n">
         <v>338.1792688578636</v>
       </c>
       <c r="Q15" t="n">
-        <v>332.0807493390695</v>
+        <v>338.1792688578636</v>
       </c>
       <c r="R15" t="n">
-        <v>332.0807493390695</v>
+        <v>338.1792688578636</v>
       </c>
       <c r="S15" t="n">
-        <v>332.0807493390695</v>
+        <v>338.1792688578636</v>
       </c>
       <c r="T15" t="n">
-        <v>321.1381101686778</v>
+        <v>252.7804635907264</v>
       </c>
       <c r="U15" t="n">
-        <v>287.6874041039108</v>
+        <v>219.3297575259593</v>
       </c>
       <c r="V15" t="n">
-        <v>202.2885988367735</v>
+        <v>182.4232128903659</v>
       </c>
       <c r="W15" t="n">
-        <v>139.0632030278373</v>
+        <v>97.02440762322861</v>
       </c>
       <c r="X15" t="n">
-        <v>53.66439776070004</v>
+        <v>83.68958670069743</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.763585377157272</v>
+        <v>64.22206709679756</v>
       </c>
     </row>
     <row r="16">
@@ -5416,55 +5416,55 @@
         <v>6.763585377157272</v>
       </c>
       <c r="D16" t="n">
-        <v>6.763585377157272</v>
+        <v>65.10308893785677</v>
       </c>
       <c r="E16" t="n">
-        <v>6.763585377157272</v>
+        <v>126.9140364466571</v>
       </c>
       <c r="F16" t="n">
-        <v>6.763585377157272</v>
+        <v>191.4467503592981</v>
       </c>
       <c r="G16" t="n">
-        <v>6.763585377157272</v>
+        <v>191.4467503592981</v>
       </c>
       <c r="H16" t="n">
-        <v>6.763585377157272</v>
+        <v>191.4467503592981</v>
       </c>
       <c r="I16" t="n">
-        <v>6.763585377157272</v>
+        <v>191.4467503592981</v>
       </c>
       <c r="J16" t="n">
-        <v>6.763585377157272</v>
+        <v>274.8622970973939</v>
       </c>
       <c r="K16" t="n">
-        <v>6.763585377157272</v>
+        <v>274.8622970973939</v>
       </c>
       <c r="L16" t="n">
-        <v>90.46295441947851</v>
+        <v>274.8622970973939</v>
       </c>
       <c r="M16" t="n">
-        <v>174.1623234617998</v>
+        <v>274.8622970973939</v>
       </c>
       <c r="N16" t="n">
-        <v>174.1623234617998</v>
+        <v>300.5762136864947</v>
       </c>
       <c r="O16" t="n">
-        <v>257.861692504121</v>
+        <v>300.5762136864947</v>
       </c>
       <c r="P16" t="n">
-        <v>301.4940970687566</v>
+        <v>300.5762136864947</v>
       </c>
       <c r="Q16" t="n">
-        <v>301.4940970687566</v>
+        <v>300.5762136864947</v>
       </c>
       <c r="R16" t="n">
         <v>301.4940970687566</v>
       </c>
       <c r="S16" t="n">
-        <v>269.9472458416878</v>
+        <v>269.9472458416879</v>
       </c>
       <c r="T16" t="n">
-        <v>250.1222244249334</v>
+        <v>250.1222244249335</v>
       </c>
       <c r="U16" t="n">
         <v>164.7234191577962</v>
@@ -5473,7 +5473,7 @@
         <v>123.311728795892</v>
       </c>
       <c r="W16" t="n">
-        <v>37.9129235287547</v>
+        <v>37.91292352875471</v>
       </c>
       <c r="X16" t="n">
         <v>19.92503092059533</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.7243025594535</v>
+        <v>224.7243025594537</v>
       </c>
       <c r="C17" t="n">
-        <v>209.8024792656694</v>
+        <v>209.8024792656697</v>
       </c>
       <c r="D17" t="n">
-        <v>207.4395829809267</v>
+        <v>207.4395829809268</v>
       </c>
       <c r="E17" t="n">
         <v>171.029462030115</v>
       </c>
       <c r="F17" t="n">
-        <v>102.5785960506392</v>
+        <v>102.5785960506393</v>
       </c>
       <c r="G17" t="n">
         <v>18.34314156973343</v>
@@ -5513,52 +5513,52 @@
         <v>6.763585377157272</v>
       </c>
       <c r="J17" t="n">
-        <v>6.763585377157272</v>
+        <v>90.46295441947852</v>
       </c>
       <c r="K17" t="n">
-        <v>6.763585377157272</v>
+        <v>92.84408918728354</v>
       </c>
       <c r="L17" t="n">
-        <v>55.38741258664086</v>
+        <v>141.4679163967671</v>
       </c>
       <c r="M17" t="n">
-        <v>138.3667488501955</v>
+        <v>224.4472526603218</v>
       </c>
       <c r="N17" t="n">
-        <v>215.8463415097251</v>
+        <v>301.9268453198514</v>
       </c>
       <c r="O17" t="n">
-        <v>252.0987650477374</v>
+        <v>338.1792688578636</v>
       </c>
       <c r="P17" t="n">
-        <v>252.0987650477374</v>
+        <v>338.1792688578636</v>
       </c>
       <c r="Q17" t="n">
-        <v>252.0987650477374</v>
+        <v>338.1792688578636</v>
       </c>
       <c r="R17" t="n">
-        <v>252.0987650477374</v>
+        <v>338.1792688578636</v>
       </c>
       <c r="S17" t="n">
-        <v>323.7716912337949</v>
+        <v>338.1792688578636</v>
       </c>
       <c r="T17" t="n">
-        <v>323.7716912337949</v>
+        <v>338.1792688578636</v>
       </c>
       <c r="U17" t="n">
-        <v>323.7716912337949</v>
+        <v>338.1792688578636</v>
       </c>
       <c r="V17" t="n">
         <v>338.1792688578636</v>
       </c>
       <c r="W17" t="n">
-        <v>335.6908127917683</v>
+        <v>335.6908127917685</v>
       </c>
       <c r="X17" t="n">
-        <v>311.0950330196738</v>
+        <v>311.095033019674</v>
       </c>
       <c r="Y17" t="n">
-        <v>263.7690985771311</v>
+        <v>263.7690985771312</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>6.763585377157272</v>
       </c>
       <c r="K18" t="n">
-        <v>45.76878079825735</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="L18" t="n">
-        <v>129.4681498405786</v>
+        <v>90.46295441947852</v>
       </c>
       <c r="M18" t="n">
-        <v>213.1675188828998</v>
+        <v>174.1623234617998</v>
       </c>
       <c r="N18" t="n">
-        <v>296.866887925221</v>
+        <v>174.1623234617998</v>
       </c>
       <c r="O18" t="n">
-        <v>296.866887925221</v>
+        <v>254.4798998155424</v>
       </c>
       <c r="P18" t="n">
         <v>338.1792688578636</v>
@@ -5616,28 +5616,28 @@
         <v>338.1792688578636</v>
       </c>
       <c r="R18" t="n">
-        <v>262.9600011785691</v>
+        <v>252.7804635907264</v>
       </c>
       <c r="S18" t="n">
-        <v>177.5611959114318</v>
+        <v>252.7804635907264</v>
       </c>
       <c r="T18" t="n">
-        <v>177.5611959114318</v>
+        <v>167.3816583235891</v>
       </c>
       <c r="U18" t="n">
-        <v>177.5611959114318</v>
+        <v>167.3816583235891</v>
       </c>
       <c r="V18" t="n">
-        <v>177.5611959114318</v>
+        <v>81.98285305645179</v>
       </c>
       <c r="W18" t="n">
-        <v>177.5611959114318</v>
+        <v>81.98285305645179</v>
       </c>
       <c r="X18" t="n">
-        <v>92.16239064429455</v>
+        <v>81.98285305645179</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.763585377157272</v>
+        <v>81.98285305645179</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.7243025594532</v>
+        <v>224.7243025594534</v>
       </c>
       <c r="C20" t="n">
-        <v>209.802479265669</v>
+        <v>209.8024792656693</v>
       </c>
       <c r="D20" t="n">
-        <v>207.439582980927</v>
+        <v>207.4395829809271</v>
       </c>
       <c r="E20" t="n">
         <v>171.0294620301153</v>
       </c>
       <c r="F20" t="n">
-        <v>102.5785960506392</v>
+        <v>102.5785960506395</v>
       </c>
       <c r="G20" t="n">
         <v>18.3431415697334</v>
@@ -5774,28 +5774,28 @@
         <v>252.0987650477374</v>
       </c>
       <c r="R20" t="n">
-        <v>252.0987650477374</v>
+        <v>335.7981340900586</v>
       </c>
       <c r="S20" t="n">
-        <v>252.0987650477374</v>
+        <v>338.1792688578636</v>
       </c>
       <c r="T20" t="n">
-        <v>252.0987650477374</v>
+        <v>338.1792688578636</v>
       </c>
       <c r="U20" t="n">
-        <v>323.7716912337949</v>
+        <v>338.1792688578636</v>
       </c>
       <c r="V20" t="n">
         <v>338.1792688578636</v>
       </c>
       <c r="W20" t="n">
-        <v>335.6908127917681</v>
+        <v>335.6908127917683</v>
       </c>
       <c r="X20" t="n">
-        <v>311.0950330196737</v>
+        <v>311.0950330196738</v>
       </c>
       <c r="Y20" t="n">
-        <v>263.7690985771308</v>
+        <v>263.769098577131</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.763585377157272</v>
+        <v>81.98285305645179</v>
       </c>
       <c r="C21" t="n">
-        <v>6.763585377157272</v>
+        <v>81.98285305645179</v>
       </c>
       <c r="D21" t="n">
         <v>6.763585377157272</v>
@@ -5832,19 +5832,19 @@
         <v>6.763585377157272</v>
       </c>
       <c r="K21" t="n">
-        <v>45.76878079825735</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="L21" t="n">
-        <v>45.76878079825735</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="M21" t="n">
-        <v>129.4681498405786</v>
+        <v>90.46295441947852</v>
       </c>
       <c r="N21" t="n">
-        <v>213.1675188828998</v>
+        <v>170.7805307732211</v>
       </c>
       <c r="O21" t="n">
-        <v>296.866887925221</v>
+        <v>254.4798998155424</v>
       </c>
       <c r="P21" t="n">
         <v>338.1792688578636</v>
@@ -5853,28 +5853,28 @@
         <v>338.1792688578636</v>
       </c>
       <c r="R21" t="n">
-        <v>252.7804635907263</v>
+        <v>252.7804635907264</v>
       </c>
       <c r="S21" t="n">
-        <v>252.7804635907263</v>
+        <v>252.7804635907264</v>
       </c>
       <c r="T21" t="n">
-        <v>252.7804635907263</v>
+        <v>252.7804635907264</v>
       </c>
       <c r="U21" t="n">
-        <v>252.7804635907263</v>
+        <v>252.7804635907264</v>
       </c>
       <c r="V21" t="n">
-        <v>252.7804635907263</v>
+        <v>167.3816583235891</v>
       </c>
       <c r="W21" t="n">
-        <v>177.5611959114318</v>
+        <v>167.3816583235891</v>
       </c>
       <c r="X21" t="n">
-        <v>177.5611959114318</v>
+        <v>81.98285305645179</v>
       </c>
       <c r="Y21" t="n">
-        <v>92.16239064429455</v>
+        <v>81.98285305645179</v>
       </c>
     </row>
     <row r="22">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.7243025594532</v>
+        <v>224.724302559453</v>
       </c>
       <c r="C23" t="n">
-        <v>209.8024792656691</v>
+        <v>209.8024792656688</v>
       </c>
       <c r="D23" t="n">
-        <v>207.4395829809269</v>
+        <v>207.4395829809268</v>
       </c>
       <c r="E23" t="n">
-        <v>171.0294620301152</v>
+        <v>171.0294620301149</v>
       </c>
       <c r="F23" t="n">
-        <v>102.5785960506394</v>
+        <v>102.5785960506391</v>
       </c>
       <c r="G23" t="n">
-        <v>18.3431415697334</v>
+        <v>18.34314156973346</v>
       </c>
       <c r="H23" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="I23" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="J23" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="K23" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="L23" t="n">
         <v>55.38741258664086</v>
@@ -6005,34 +6005,34 @@
         <v>252.0987650477374</v>
       </c>
       <c r="P23" t="n">
-        <v>252.0987650477374</v>
+        <v>335.7981340900586</v>
       </c>
       <c r="Q23" t="n">
-        <v>252.0987650477374</v>
+        <v>335.7981340900586</v>
       </c>
       <c r="R23" t="n">
-        <v>252.0987650477374</v>
+        <v>335.7981340900586</v>
       </c>
       <c r="S23" t="n">
-        <v>252.0987650477374</v>
+        <v>335.7981340900586</v>
       </c>
       <c r="T23" t="n">
-        <v>252.0987650477374</v>
+        <v>335.7981340900586</v>
       </c>
       <c r="U23" t="n">
-        <v>323.7716912337947</v>
+        <v>335.7981340900586</v>
       </c>
       <c r="V23" t="n">
-        <v>338.1792688578635</v>
+        <v>338.1792688578636</v>
       </c>
       <c r="W23" t="n">
-        <v>335.6908127917682</v>
+        <v>335.6908127917681</v>
       </c>
       <c r="X23" t="n">
-        <v>311.0950330196736</v>
+        <v>311.0950330196735</v>
       </c>
       <c r="Y23" t="n">
-        <v>263.7690985771308</v>
+        <v>263.7690985771306</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>229.9444615228996</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="C24" t="n">
-        <v>144.5456562557623</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="D24" t="n">
-        <v>59.14685098862505</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="E24" t="n">
-        <v>59.14685098862505</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="F24" t="n">
-        <v>59.14685098862505</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="G24" t="n">
-        <v>59.14685098862505</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="H24" t="n">
-        <v>59.14685098862505</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="I24" t="n">
-        <v>59.14685098862505</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="J24" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="K24" t="n">
-        <v>6.76358537715727</v>
+        <v>45.76878079825735</v>
       </c>
       <c r="L24" t="n">
-        <v>6.76358537715727</v>
+        <v>129.4681498405786</v>
       </c>
       <c r="M24" t="n">
-        <v>90.46295441947848</v>
+        <v>170.7805307732211</v>
       </c>
       <c r="N24" t="n">
-        <v>174.1623234617997</v>
+        <v>170.7805307732211</v>
       </c>
       <c r="O24" t="n">
-        <v>257.8616925041209</v>
+        <v>254.4798998155424</v>
       </c>
       <c r="P24" t="n">
-        <v>338.1792688578635</v>
+        <v>338.1792688578636</v>
       </c>
       <c r="Q24" t="n">
-        <v>338.1792688578635</v>
+        <v>338.1792688578636</v>
       </c>
       <c r="R24" t="n">
-        <v>338.1792688578635</v>
+        <v>252.7804635907264</v>
       </c>
       <c r="S24" t="n">
-        <v>338.1792688578635</v>
+        <v>252.7804635907264</v>
       </c>
       <c r="T24" t="n">
-        <v>338.1792688578635</v>
+        <v>167.3816583235891</v>
       </c>
       <c r="U24" t="n">
-        <v>338.1792688578635</v>
+        <v>81.98285305645179</v>
       </c>
       <c r="V24" t="n">
-        <v>338.1792688578635</v>
+        <v>81.98285305645179</v>
       </c>
       <c r="W24" t="n">
-        <v>338.1792688578635</v>
+        <v>81.98285305645179</v>
       </c>
       <c r="X24" t="n">
-        <v>338.1792688578635</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="Y24" t="n">
-        <v>315.3432667900368</v>
+        <v>6.763585377157272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="C25" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="D25" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="E25" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="F25" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="G25" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="H25" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="I25" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="J25" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="K25" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="L25" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="M25" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="N25" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="O25" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="P25" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="R25" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="S25" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="T25" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="U25" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="V25" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="W25" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="X25" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.76358537715727</v>
+        <v>6.763585377157272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1025.021363618494</v>
+        <v>1025.021363618493</v>
       </c>
       <c r="C26" t="n">
-        <v>886.2687840112819</v>
+        <v>886.2687840112817</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0751314131126</v>
+        <v>760.0751314131121</v>
       </c>
       <c r="E26" t="n">
-        <v>599.8342541488735</v>
+        <v>599.834254148873</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5526318559705</v>
+        <v>407.5526318559699</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4864210616374</v>
+        <v>199.4864210616367</v>
       </c>
       <c r="H26" t="n">
-        <v>64.07610855563384</v>
+        <v>64.07610855563381</v>
       </c>
       <c r="I26" t="n">
         <v>36.09658434460356</v>
@@ -6227,16 +6227,16 @@
         <v>171.8183046963237</v>
       </c>
       <c r="K26" t="n">
-        <v>377.4043607994711</v>
+        <v>377.4043607994712</v>
       </c>
       <c r="L26" t="n">
-        <v>636.7402271432943</v>
+        <v>636.7402271432939</v>
       </c>
       <c r="M26" t="n">
-        <v>930.431602541188</v>
+        <v>930.4316025411874</v>
       </c>
       <c r="N26" t="n">
-        <v>1218.623234335057</v>
+        <v>1218.623234335056</v>
       </c>
       <c r="O26" t="n">
         <v>1465.587697007408</v>
@@ -6254,19 +6254,19 @@
         <v>1790.284789810544</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.615984973872</v>
+        <v>1780.615984973871</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.930001674768</v>
+        <v>1742.930001674767</v>
       </c>
       <c r="V26" t="n">
-        <v>1633.799355170614</v>
+        <v>1633.799355170613</v>
       </c>
       <c r="W26" t="n">
-        <v>1507.480142791091</v>
+        <v>1507.48014279109</v>
       </c>
       <c r="X26" t="n">
-        <v>1359.053606705569</v>
+        <v>1359.053606705568</v>
       </c>
       <c r="Y26" t="n">
         <v>1187.896915949598</v>
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>36.09658434460356</v>
+        <v>225.5088586116399</v>
       </c>
       <c r="C27" t="n">
         <v>36.09658434460356</v>
@@ -6324,31 +6324,31 @@
         <v>801.8233632992851</v>
       </c>
       <c r="Q27" t="n">
-        <v>801.8233632992851</v>
+        <v>795.7248437804911</v>
       </c>
       <c r="R27" t="n">
-        <v>801.8233632992851</v>
+        <v>758.3275643350479</v>
       </c>
       <c r="S27" t="n">
-        <v>801.8233632992851</v>
+        <v>564.9237903801746</v>
       </c>
       <c r="T27" t="n">
-        <v>799.6978977085647</v>
+        <v>562.7983247894543</v>
       </c>
       <c r="U27" t="n">
-        <v>775.0643652234691</v>
+        <v>538.1647923043588</v>
       </c>
       <c r="V27" t="n">
-        <v>531.9846471271031</v>
+        <v>295.0850742079929</v>
       </c>
       <c r="W27" t="n">
-        <v>477.5764248978383</v>
+        <v>240.6768519787281</v>
       </c>
       <c r="X27" t="n">
-        <v>261.7372774092759</v>
+        <v>236.1592046358683</v>
       </c>
       <c r="Y27" t="n">
-        <v>36.09658434460356</v>
+        <v>225.5088586116399</v>
       </c>
     </row>
     <row r="28">
@@ -6364,67 +6364,67 @@
         <v>36.09658434460356</v>
       </c>
       <c r="D28" t="n">
-        <v>36.09658434460356</v>
+        <v>103.077799730739</v>
       </c>
       <c r="E28" t="n">
-        <v>36.09658434460356</v>
+        <v>103.077799730739</v>
       </c>
       <c r="F28" t="n">
-        <v>36.09658434460356</v>
+        <v>103.077799730739</v>
       </c>
       <c r="G28" t="n">
-        <v>79.80026550808105</v>
+        <v>103.077799730739</v>
       </c>
       <c r="H28" t="n">
-        <v>79.80026550808105</v>
+        <v>103.077799730739</v>
       </c>
       <c r="I28" t="n">
-        <v>79.80026550808105</v>
+        <v>103.077799730739</v>
       </c>
       <c r="J28" t="n">
-        <v>79.80026550808105</v>
+        <v>103.077799730739</v>
       </c>
       <c r="K28" t="n">
-        <v>79.80026550808105</v>
+        <v>103.077799730739</v>
       </c>
       <c r="L28" t="n">
-        <v>259.4862081166822</v>
+        <v>270.7780407246694</v>
       </c>
       <c r="M28" t="n">
-        <v>259.4862081166822</v>
+        <v>270.7780407246694</v>
       </c>
       <c r="N28" t="n">
-        <v>259.4862081166822</v>
+        <v>270.7780407246694</v>
       </c>
       <c r="O28" t="n">
-        <v>270.7780407246696</v>
+        <v>270.7780407246694</v>
       </c>
       <c r="P28" t="n">
-        <v>270.7780407246696</v>
+        <v>270.7780407246694</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.7780407246696</v>
+        <v>270.7780407246694</v>
       </c>
       <c r="R28" t="n">
-        <v>270.7780407246696</v>
+        <v>270.7780407246694</v>
       </c>
       <c r="S28" t="n">
-        <v>248.0483630772723</v>
+        <v>248.0483630772721</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0405152401892</v>
+        <v>237.0405152401891</v>
       </c>
       <c r="U28" t="n">
-        <v>160.4588835527233</v>
+        <v>160.4588835527232</v>
       </c>
       <c r="V28" t="n">
-        <v>127.8643667704905</v>
+        <v>127.8643667704904</v>
       </c>
       <c r="W28" t="n">
-        <v>49.61157533685823</v>
+        <v>49.61157533685817</v>
       </c>
       <c r="X28" t="n">
-        <v>40.44085630837024</v>
+        <v>40.44085630837021</v>
       </c>
       <c r="Y28" t="n">
         <v>36.09658434460356</v>
@@ -6440,22 +6440,22 @@
         <v>1025.021363618494</v>
       </c>
       <c r="C29" t="n">
-        <v>886.268784011282</v>
+        <v>886.2687840112819</v>
       </c>
       <c r="D29" t="n">
-        <v>760.0751314131124</v>
+        <v>760.0751314131123</v>
       </c>
       <c r="E29" t="n">
         <v>599.8342541488732</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5526318559703</v>
+        <v>407.5526318559702</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4864210616367</v>
+        <v>199.486421061637</v>
       </c>
       <c r="H29" t="n">
-        <v>64.07610855563384</v>
+        <v>64.07610855563381</v>
       </c>
       <c r="I29" t="n">
         <v>36.09658434460356</v>
@@ -6464,16 +6464,16 @@
         <v>171.8183046963237</v>
       </c>
       <c r="K29" t="n">
-        <v>377.4043607994711</v>
+        <v>377.4043607994712</v>
       </c>
       <c r="L29" t="n">
-        <v>636.7402271432937</v>
+        <v>636.7402271432939</v>
       </c>
       <c r="M29" t="n">
-        <v>930.431602541188</v>
+        <v>930.4316025411874</v>
       </c>
       <c r="N29" t="n">
-        <v>1218.623234335057</v>
+        <v>1218.623234335056</v>
       </c>
       <c r="O29" t="n">
         <v>1465.587697007408</v>
@@ -6488,16 +6488,16 @@
         <v>1804.829217230178</v>
       </c>
       <c r="S29" t="n">
-        <v>1790.284789810544</v>
+        <v>1790.284789810543</v>
       </c>
       <c r="T29" t="n">
-        <v>1780.615984973872</v>
+        <v>1780.615984973871</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.930001674768</v>
+        <v>1742.930001674767</v>
       </c>
       <c r="V29" t="n">
-        <v>1633.799355170614</v>
+        <v>1633.799355170613</v>
       </c>
       <c r="W29" t="n">
         <v>1507.480142791091</v>
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>346.7647927710342</v>
+        <v>36.09658434460356</v>
       </c>
       <c r="C30" t="n">
-        <v>346.7647927710342</v>
+        <v>36.09658434460356</v>
       </c>
       <c r="D30" t="n">
-        <v>346.7647927710342</v>
+        <v>36.09658434460356</v>
       </c>
       <c r="E30" t="n">
-        <v>346.7647927710342</v>
+        <v>36.09658434460356</v>
       </c>
       <c r="F30" t="n">
-        <v>186.3370764882783</v>
+        <v>36.09658434460356</v>
       </c>
       <c r="G30" t="n">
         <v>36.09658434460356</v>
@@ -6561,31 +6561,31 @@
         <v>801.8233632992851</v>
       </c>
       <c r="Q30" t="n">
-        <v>801.8233632992851</v>
+        <v>795.7248437804911</v>
       </c>
       <c r="R30" t="n">
-        <v>801.8233632992851</v>
+        <v>795.7248437804911</v>
       </c>
       <c r="S30" t="n">
-        <v>801.8233632992851</v>
+        <v>795.7248437804911</v>
       </c>
       <c r="T30" t="n">
-        <v>799.6978977085647</v>
+        <v>588.3763975628619</v>
       </c>
       <c r="U30" t="n">
-        <v>659.4207264637532</v>
+        <v>563.7428650777664</v>
       </c>
       <c r="V30" t="n">
-        <v>631.3313554078312</v>
+        <v>320.6631469814005</v>
       </c>
       <c r="W30" t="n">
-        <v>576.9231331785663</v>
+        <v>51.26457771169179</v>
       </c>
       <c r="X30" t="n">
-        <v>572.4054858357065</v>
+        <v>46.74693036883203</v>
       </c>
       <c r="Y30" t="n">
-        <v>346.7647927710342</v>
+        <v>36.09658434460356</v>
       </c>
     </row>
     <row r="31">
@@ -6628,40 +6628,40 @@
         <v>36.09658434460356</v>
       </c>
       <c r="M31" t="n">
-        <v>36.09658434460356</v>
+        <v>96.4055299232397</v>
       </c>
       <c r="N31" t="n">
-        <v>36.09658434460356</v>
+        <v>96.4055299232397</v>
       </c>
       <c r="O31" t="n">
-        <v>117.3055954998834</v>
+        <v>270.7780407246694</v>
       </c>
       <c r="P31" t="n">
-        <v>270.7780407246696</v>
+        <v>270.7780407246694</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.7780407246696</v>
+        <v>270.7780407246694</v>
       </c>
       <c r="R31" t="n">
-        <v>270.7780407246696</v>
+        <v>270.7780407246694</v>
       </c>
       <c r="S31" t="n">
-        <v>248.0483630772723</v>
+        <v>248.0483630772721</v>
       </c>
       <c r="T31" t="n">
-        <v>237.0405152401892</v>
+        <v>237.0405152401891</v>
       </c>
       <c r="U31" t="n">
-        <v>160.4588835527233</v>
+        <v>160.4588835527232</v>
       </c>
       <c r="V31" t="n">
-        <v>127.8643667704905</v>
+        <v>127.8643667704904</v>
       </c>
       <c r="W31" t="n">
-        <v>49.61157533685823</v>
+        <v>49.61157533685817</v>
       </c>
       <c r="X31" t="n">
-        <v>40.44085630837024</v>
+        <v>40.44085630837021</v>
       </c>
       <c r="Y31" t="n">
         <v>36.09658434460356</v>
@@ -6677,43 +6677,43 @@
         <v>1025.021363618494</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2687840112826</v>
+        <v>886.2687840112828</v>
       </c>
       <c r="D32" t="n">
-        <v>760.075131413113</v>
+        <v>760.0751314131132</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8342541488739</v>
+        <v>599.8342541488742</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5526318559708</v>
+        <v>407.5526318559711</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4864210616377</v>
+        <v>199.4864210616379</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07610855563382</v>
+        <v>64.07610855563439</v>
       </c>
       <c r="I32" t="n">
         <v>36.09658434460356</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8183046963236</v>
+        <v>171.8183046963237</v>
       </c>
       <c r="K32" t="n">
-        <v>377.4043607994711</v>
+        <v>377.4043607994712</v>
       </c>
       <c r="L32" t="n">
-        <v>636.7402271432937</v>
+        <v>636.7402271432939</v>
       </c>
       <c r="M32" t="n">
-        <v>930.4316025411874</v>
+        <v>930.4316025411875</v>
       </c>
       <c r="N32" t="n">
         <v>1218.623234335056</v>
       </c>
       <c r="O32" t="n">
-        <v>1465.587697007407</v>
+        <v>1465.587697007408</v>
       </c>
       <c r="P32" t="n">
         <v>1663.092768286574</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>530.8676207449133</v>
+        <v>105.6476867370076</v>
       </c>
       <c r="C33" t="n">
-        <v>530.8676207449133</v>
+        <v>105.6476867370076</v>
       </c>
       <c r="D33" t="n">
-        <v>370.087504505945</v>
+        <v>105.6476867370076</v>
       </c>
       <c r="E33" t="n">
-        <v>196.5243006273595</v>
+        <v>105.6476867370076</v>
       </c>
       <c r="F33" t="n">
         <v>36.09658434460356</v>
@@ -6798,31 +6798,31 @@
         <v>801.8233632992851</v>
       </c>
       <c r="Q33" t="n">
-        <v>801.8233632992851</v>
+        <v>795.7248437804911</v>
       </c>
       <c r="R33" t="n">
-        <v>801.8233632992851</v>
+        <v>660.0529655459862</v>
       </c>
       <c r="S33" t="n">
-        <v>801.8233632992851</v>
+        <v>660.0529655459862</v>
       </c>
       <c r="T33" t="n">
-        <v>799.6978977085648</v>
+        <v>657.9274999552659</v>
       </c>
       <c r="U33" t="n">
-        <v>775.0643652234693</v>
+        <v>633.2939674701704</v>
       </c>
       <c r="V33" t="n">
-        <v>746.9749941675473</v>
+        <v>390.2142493738045</v>
       </c>
       <c r="W33" t="n">
-        <v>692.5667719382825</v>
+        <v>120.8156801040958</v>
       </c>
       <c r="X33" t="n">
-        <v>688.0491245954228</v>
+        <v>116.298032761236</v>
       </c>
       <c r="Y33" t="n">
-        <v>677.3987785711943</v>
+        <v>105.6476867370076</v>
       </c>
     </row>
     <row r="34">
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70.9678720206242</v>
+        <v>36.09658434460356</v>
       </c>
       <c r="C34" t="n">
-        <v>70.9678720206242</v>
+        <v>36.09658434460356</v>
       </c>
       <c r="D34" t="n">
-        <v>70.9678720206242</v>
+        <v>36.09658434460356</v>
       </c>
       <c r="E34" t="n">
-        <v>70.9678720206242</v>
+        <v>36.09658434460356</v>
       </c>
       <c r="F34" t="n">
-        <v>70.9678720206242</v>
+        <v>36.09658434460356</v>
       </c>
       <c r="G34" t="n">
-        <v>70.9678720206242</v>
+        <v>36.09658434460356</v>
       </c>
       <c r="H34" t="n">
-        <v>117.5618502447068</v>
+        <v>82.69056256868622</v>
       </c>
       <c r="I34" t="n">
-        <v>165.2321205992171</v>
+        <v>130.3608329231965</v>
       </c>
       <c r="J34" t="n">
-        <v>257.2893791627489</v>
+        <v>130.3608329231965</v>
       </c>
       <c r="K34" t="n">
-        <v>270.7780407246694</v>
+        <v>130.3608329231965</v>
       </c>
       <c r="L34" t="n">
-        <v>270.7780407246694</v>
+        <v>130.3608329231965</v>
       </c>
       <c r="M34" t="n">
-        <v>270.7780407246694</v>
+        <v>130.3608329231965</v>
       </c>
       <c r="N34" t="n">
-        <v>270.7780407246694</v>
+        <v>261.2184455169715</v>
       </c>
       <c r="O34" t="n">
-        <v>270.7780407246694</v>
+        <v>261.2184455169715</v>
       </c>
       <c r="P34" t="n">
-        <v>270.7780407246694</v>
+        <v>261.2184455169715</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.7780407246694</v>
+        <v>261.2184455169715</v>
       </c>
       <c r="R34" t="n">
         <v>270.7780407246694</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>852.8410737358895</v>
+        <v>852.8410737358918</v>
       </c>
       <c r="C35" t="n">
-        <v>737.7194519151702</v>
+        <v>737.7194519151722</v>
       </c>
       <c r="D35" t="n">
-        <v>635.156757103493</v>
+        <v>635.1567571034948</v>
       </c>
       <c r="E35" t="n">
-        <v>498.5468376257462</v>
+        <v>498.5468376257478</v>
       </c>
       <c r="F35" t="n">
-        <v>329.8961731193354</v>
+        <v>329.8961731193368</v>
       </c>
       <c r="G35" t="n">
-        <v>145.4609201114945</v>
+        <v>145.4609201114958</v>
       </c>
       <c r="H35" t="n">
-        <v>33.68156539198424</v>
+        <v>33.68156539198442</v>
       </c>
       <c r="I35" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744632</v>
       </c>
       <c r="J35" t="n">
-        <v>188.2154210457075</v>
+        <v>89.20762978660261</v>
       </c>
       <c r="K35" t="n">
-        <v>309.0486792037311</v>
+        <v>317.9543876162911</v>
       </c>
       <c r="L35" t="n">
-        <v>591.5452472740949</v>
+        <v>600.4509556866547</v>
       </c>
       <c r="M35" t="n">
-        <v>908.3973243985296</v>
+        <v>683.4302919502093</v>
       </c>
       <c r="N35" t="n">
-        <v>985.8769170580592</v>
+        <v>994.7826254706189</v>
       </c>
       <c r="O35" t="n">
-        <v>1256.002081456952</v>
+        <v>1264.907789869511</v>
       </c>
       <c r="P35" t="n">
-        <v>1256.002081456952</v>
+        <v>1264.907789869511</v>
       </c>
       <c r="Q35" t="n">
-        <v>1402.362428097128</v>
+        <v>1411.268136509687</v>
       </c>
       <c r="R35" t="n">
-        <v>1444.059933853638</v>
+        <v>1452.965642266197</v>
       </c>
       <c r="S35" t="n">
-        <v>1452.965642266195</v>
+        <v>1452.965642266197</v>
       </c>
       <c r="T35" t="n">
-        <v>1466.649948372314</v>
+        <v>1466.649948372316</v>
       </c>
       <c r="U35" t="n">
-        <v>1452.594922859702</v>
+        <v>1452.594922859705</v>
       </c>
       <c r="V35" t="n">
-        <v>1367.09523414204</v>
+        <v>1367.095234142043</v>
       </c>
       <c r="W35" t="n">
-        <v>1264.40697954901</v>
+        <v>1264.406979549012</v>
       </c>
       <c r="X35" t="n">
-        <v>1139.61140124998</v>
+        <v>1139.611401249983</v>
       </c>
       <c r="Y35" t="n">
-        <v>992.0856682805022</v>
+        <v>992.0856682805047</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>623.1496472768172</v>
+        <v>218.7452732344826</v>
       </c>
       <c r="C36" t="n">
-        <v>623.1496472768172</v>
+        <v>29.33299896744632</v>
       </c>
       <c r="D36" t="n">
-        <v>462.3695310378489</v>
+        <v>29.33299896744632</v>
       </c>
       <c r="E36" t="n">
-        <v>288.8063271592633</v>
+        <v>29.33299896744632</v>
       </c>
       <c r="F36" t="n">
-        <v>128.3786108765074</v>
+        <v>29.33299896744632</v>
       </c>
       <c r="G36" t="n">
-        <v>128.3786108765074</v>
+        <v>29.33299896744632</v>
       </c>
       <c r="H36" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744632</v>
       </c>
       <c r="I36" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744632</v>
       </c>
       <c r="J36" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744632</v>
       </c>
       <c r="K36" t="n">
-        <v>68.33819438854637</v>
+        <v>68.3381943885464</v>
       </c>
       <c r="L36" t="n">
-        <v>187.0720355069088</v>
+        <v>187.0720355069089</v>
       </c>
       <c r="M36" t="n">
-        <v>370.3834919960092</v>
+        <v>370.3834919960093</v>
       </c>
       <c r="N36" t="n">
-        <v>576.9665468449932</v>
+        <v>576.9665468449933</v>
       </c>
       <c r="O36" t="n">
-        <v>710.2026003957699</v>
+        <v>710.20260039577</v>
       </c>
       <c r="P36" t="n">
-        <v>795.0597779221278</v>
+        <v>795.059777922128</v>
       </c>
       <c r="Q36" t="n">
-        <v>795.0597779221278</v>
+        <v>795.059777922128</v>
       </c>
       <c r="R36" t="n">
-        <v>659.3878996876228</v>
+        <v>659.3878996876231</v>
       </c>
       <c r="S36" t="n">
-        <v>659.3878996876228</v>
+        <v>659.3878996876231</v>
       </c>
       <c r="T36" t="n">
-        <v>659.3878996876228</v>
+        <v>659.3878996876231</v>
       </c>
       <c r="U36" t="n">
-        <v>658.3853249890195</v>
+        <v>658.3853249890196</v>
       </c>
       <c r="V36" t="n">
-        <v>653.9269117195897</v>
+        <v>469.0305320605589</v>
       </c>
       <c r="W36" t="n">
-        <v>623.1496472768172</v>
+        <v>438.2532676177863</v>
       </c>
       <c r="X36" t="n">
-        <v>623.1496472768172</v>
+        <v>218.7452732344826</v>
       </c>
       <c r="Y36" t="n">
-        <v>623.1496472768172</v>
+        <v>218.7452732344826</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744632</v>
       </c>
       <c r="C37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744632</v>
       </c>
       <c r="D37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744632</v>
       </c>
       <c r="E37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744632</v>
       </c>
       <c r="F37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744632</v>
       </c>
       <c r="G37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744632</v>
       </c>
       <c r="H37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744632</v>
       </c>
       <c r="I37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744632</v>
       </c>
       <c r="J37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744632</v>
       </c>
       <c r="K37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744632</v>
       </c>
       <c r="L37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744632</v>
       </c>
       <c r="M37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744632</v>
       </c>
       <c r="N37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744632</v>
       </c>
       <c r="O37" t="n">
-        <v>29.33299896744628</v>
+        <v>145.8690655113008</v>
       </c>
       <c r="P37" t="n">
-        <v>29.33299896744628</v>
+        <v>145.8690655113008</v>
       </c>
       <c r="Q37" t="n">
-        <v>137.7138710502362</v>
+        <v>145.8690655113008</v>
       </c>
       <c r="R37" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113008</v>
       </c>
       <c r="S37" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113008</v>
       </c>
       <c r="T37" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113008</v>
       </c>
       <c r="U37" t="n">
-        <v>92.91839161032672</v>
+        <v>92.91839161032705</v>
       </c>
       <c r="V37" t="n">
-        <v>83.95483261458621</v>
+        <v>83.95483261458639</v>
       </c>
       <c r="W37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744632</v>
       </c>
       <c r="X37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744632</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744632</v>
       </c>
     </row>
     <row r="38">
@@ -7148,58 +7148,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>852.8410737358905</v>
+        <v>852.8410737358904</v>
       </c>
       <c r="C38" t="n">
-        <v>737.7194519151715</v>
+        <v>737.719451915171</v>
       </c>
       <c r="D38" t="n">
-        <v>635.1567571034941</v>
+        <v>635.1567571034936</v>
       </c>
       <c r="E38" t="n">
-        <v>498.546837625747</v>
+        <v>498.5468376257464</v>
       </c>
       <c r="F38" t="n">
-        <v>329.8961731193363</v>
+        <v>329.8961731193356</v>
       </c>
       <c r="G38" t="n">
-        <v>145.4609201114954</v>
+        <v>145.4609201114946</v>
       </c>
       <c r="H38" t="n">
-        <v>33.68156539198419</v>
+        <v>33.68156539198434</v>
       </c>
       <c r="I38" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="J38" t="n">
-        <v>188.2154210457076</v>
+        <v>188.2154210457074</v>
       </c>
       <c r="K38" t="n">
-        <v>416.9621788753962</v>
+        <v>416.9621788753959</v>
       </c>
       <c r="L38" t="n">
-        <v>699.4587469457599</v>
+        <v>699.4587469457596</v>
       </c>
       <c r="M38" t="n">
-        <v>782.4380832093145</v>
+        <v>1016.310824070194</v>
       </c>
       <c r="N38" t="n">
-        <v>859.9176758688442</v>
+        <v>1233.433964025059</v>
       </c>
       <c r="O38" t="n">
-        <v>1035.336308451243</v>
+        <v>1269.686387563071</v>
       </c>
       <c r="P38" t="n">
-        <v>1256.002081456951</v>
+        <v>1269.686387563071</v>
       </c>
       <c r="Q38" t="n">
-        <v>1402.362428097128</v>
+        <v>1416.046734203247</v>
       </c>
       <c r="R38" t="n">
-        <v>1444.059933853638</v>
+        <v>1457.744239959757</v>
       </c>
       <c r="S38" t="n">
-        <v>1452.965642266195</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="T38" t="n">
         <v>1466.649948372314</v>
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>713.5163096347923</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="C39" t="n">
-        <v>524.104035367756</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="D39" t="n">
-        <v>363.3239191287877</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="E39" t="n">
-        <v>189.7607152502022</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="F39" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="G39" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="H39" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="I39" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="J39" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="K39" t="n">
         <v>68.33819438854637</v>
@@ -7278,25 +7278,25 @@
         <v>795.0597779221278</v>
       </c>
       <c r="S39" t="n">
-        <v>795.0597779221278</v>
+        <v>601.6560039672545</v>
       </c>
       <c r="T39" t="n">
-        <v>795.0597779221278</v>
+        <v>542.8138610321242</v>
       </c>
       <c r="U39" t="n">
-        <v>794.0572032235245</v>
+        <v>303.1899815065848</v>
       </c>
       <c r="V39" t="n">
-        <v>789.5987899540949</v>
+        <v>60.11026341021889</v>
       </c>
       <c r="W39" t="n">
-        <v>758.8215255113224</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="X39" t="n">
-        <v>758.8215255113224</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="Y39" t="n">
-        <v>758.8215255113224</v>
+        <v>29.33299896744629</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="C40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="D40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="E40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="F40" t="n">
-        <v>125.6681264320643</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="G40" t="n">
-        <v>145.8690655113001</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="H40" t="n">
-        <v>145.8690655113001</v>
+        <v>99.08767891806994</v>
       </c>
       <c r="I40" t="n">
-        <v>145.8690655113001</v>
+        <v>99.08767891806994</v>
       </c>
       <c r="J40" t="n">
-        <v>145.8690655113001</v>
+        <v>99.08767891806994</v>
       </c>
       <c r="K40" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="L40" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="M40" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="N40" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="O40" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="P40" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="Q40" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="R40" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="S40" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="T40" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="U40" t="n">
-        <v>92.91839161032661</v>
+        <v>92.91839161032691</v>
       </c>
       <c r="V40" t="n">
-        <v>83.95483261458615</v>
+        <v>83.95483261458631</v>
       </c>
       <c r="W40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="X40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>852.8410737358901</v>
+        <v>852.8410737358902</v>
       </c>
       <c r="C41" t="n">
         <v>737.7194519151708</v>
       </c>
       <c r="D41" t="n">
-        <v>635.1567571034936</v>
+        <v>635.1567571034935</v>
       </c>
       <c r="E41" t="n">
-        <v>498.5468376257468</v>
+        <v>498.5468376257467</v>
       </c>
       <c r="F41" t="n">
-        <v>329.8961731193357</v>
+        <v>329.8961731193359</v>
       </c>
       <c r="G41" t="n">
-        <v>145.4609201114947</v>
+        <v>145.4609201114949</v>
       </c>
       <c r="H41" t="n">
-        <v>33.68156539198424</v>
+        <v>33.68156539198425</v>
       </c>
       <c r="I41" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="J41" t="n">
-        <v>188.2154210457075</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="K41" t="n">
-        <v>188.2154210457075</v>
+        <v>258.0797567971349</v>
       </c>
       <c r="L41" t="n">
-        <v>236.8392482551911</v>
+        <v>540.5763248674987</v>
       </c>
       <c r="M41" t="n">
-        <v>553.6913253796258</v>
+        <v>857.4284019919335</v>
       </c>
       <c r="N41" t="n">
-        <v>765.2111440523518</v>
+        <v>1168.780735512343</v>
       </c>
       <c r="O41" t="n">
-        <v>1035.336308451244</v>
+        <v>1438.905899911236</v>
       </c>
       <c r="P41" t="n">
-        <v>1256.002081456952</v>
+        <v>1438.905899911236</v>
       </c>
       <c r="Q41" t="n">
-        <v>1402.362428097128</v>
+        <v>1438.905899911236</v>
       </c>
       <c r="R41" t="n">
         <v>1444.059933853638</v>
@@ -7454,7 +7454,7 @@
         <v>1139.611401249981</v>
       </c>
       <c r="Y41" t="n">
-        <v>992.0856682805027</v>
+        <v>992.0856682805029</v>
       </c>
     </row>
     <row r="42">
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>156.2750006323238</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="C42" t="n">
-        <v>156.2750006323238</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="D42" t="n">
-        <v>156.2750006323238</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="E42" t="n">
-        <v>156.2750006323238</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="F42" t="n">
-        <v>156.2750006323238</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="G42" t="n">
-        <v>156.2750006323238</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="H42" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="I42" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="J42" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="K42" t="n">
         <v>68.33819438854637</v>
@@ -7509,31 +7509,31 @@
         <v>795.0597779221278</v>
       </c>
       <c r="Q42" t="n">
-        <v>788.9612584033338</v>
+        <v>795.0597779221278</v>
       </c>
       <c r="R42" t="n">
-        <v>653.2893801688289</v>
+        <v>795.0597779221278</v>
       </c>
       <c r="S42" t="n">
-        <v>653.2893801688289</v>
+        <v>795.0597779221278</v>
       </c>
       <c r="T42" t="n">
-        <v>436.1735675376647</v>
+        <v>768.4545540967965</v>
       </c>
       <c r="U42" t="n">
-        <v>196.5496880121252</v>
+        <v>528.8306745712571</v>
       </c>
       <c r="V42" t="n">
-        <v>192.0912747426954</v>
+        <v>524.3722613018273</v>
       </c>
       <c r="W42" t="n">
-        <v>156.2750006323238</v>
+        <v>254.9736920321186</v>
       </c>
       <c r="X42" t="n">
-        <v>156.2750006323238</v>
+        <v>254.9736920321186</v>
       </c>
       <c r="Y42" t="n">
-        <v>156.2750006323238</v>
+        <v>29.33299896744629</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="C43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="D43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="E43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="F43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="G43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="H43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="I43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="J43" t="n">
-        <v>29.33299896744628</v>
+        <v>99.89351385131836</v>
       </c>
       <c r="K43" t="n">
-        <v>29.33299896744628</v>
+        <v>99.89351385131836</v>
       </c>
       <c r="L43" t="n">
-        <v>145.8690655113003</v>
+        <v>99.89351385131836</v>
       </c>
       <c r="M43" t="n">
-        <v>145.8690655113003</v>
+        <v>99.89351385131836</v>
       </c>
       <c r="N43" t="n">
-        <v>145.8690655113003</v>
+        <v>99.89351385131836</v>
       </c>
       <c r="O43" t="n">
-        <v>145.8690655113003</v>
+        <v>99.89351385131836</v>
       </c>
       <c r="P43" t="n">
-        <v>145.8690655113003</v>
+        <v>99.89351385131836</v>
       </c>
       <c r="Q43" t="n">
-        <v>145.8690655113003</v>
+        <v>99.89351385131836</v>
       </c>
       <c r="R43" t="n">
-        <v>145.8690655113003</v>
+        <v>132.6138107855573</v>
       </c>
       <c r="S43" t="n">
-        <v>145.8690655113003</v>
+        <v>133.4971554498843</v>
       </c>
       <c r="T43" t="n">
         <v>145.8690655113003</v>
       </c>
       <c r="U43" t="n">
-        <v>92.91839161032672</v>
+        <v>92.91839161032674</v>
       </c>
       <c r="V43" t="n">
-        <v>83.95483261458621</v>
+        <v>83.95483261458622</v>
       </c>
       <c r="W43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="X43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>852.8410737358899</v>
+        <v>852.8410737358904</v>
       </c>
       <c r="C44" t="n">
-        <v>737.7194519151708</v>
+        <v>737.7194519151712</v>
       </c>
       <c r="D44" t="n">
-        <v>635.1567571034936</v>
+        <v>635.1567571034939</v>
       </c>
       <c r="E44" t="n">
-        <v>498.5468376257468</v>
+        <v>498.5468376257467</v>
       </c>
       <c r="F44" t="n">
-        <v>329.896173119336</v>
+        <v>329.8961731193359</v>
       </c>
       <c r="G44" t="n">
-        <v>145.4609201114956</v>
+        <v>145.4609201114949</v>
       </c>
       <c r="H44" t="n">
-        <v>33.68156539198423</v>
+        <v>33.68156539198425</v>
       </c>
       <c r="I44" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="J44" t="n">
         <v>188.2154210457075</v>
@@ -7652,16 +7652,16 @@
         <v>416.9621788753961</v>
       </c>
       <c r="L44" t="n">
-        <v>465.5860060848797</v>
+        <v>699.4587469457599</v>
       </c>
       <c r="M44" t="n">
-        <v>548.5653423484343</v>
+        <v>782.4380832093145</v>
       </c>
       <c r="N44" t="n">
-        <v>765.2111440523518</v>
+        <v>1093.790416729724</v>
       </c>
       <c r="O44" t="n">
-        <v>1035.336308451244</v>
+        <v>1256.002081456952</v>
       </c>
       <c r="P44" t="n">
         <v>1256.002081456952</v>
@@ -7682,16 +7682,16 @@
         <v>1452.594922859703</v>
       </c>
       <c r="V44" t="n">
-        <v>1367.09523414204</v>
+        <v>1367.095234142041</v>
       </c>
       <c r="W44" t="n">
-        <v>1264.40697954901</v>
+        <v>1264.406979549011</v>
       </c>
       <c r="X44" t="n">
         <v>1139.611401249981</v>
       </c>
       <c r="Y44" t="n">
-        <v>992.0856682805027</v>
+        <v>992.0856682805031</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>467.1199932234412</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="C45" t="n">
-        <v>467.1199932234412</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="D45" t="n">
-        <v>467.1199932234412</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="E45" t="n">
-        <v>467.1199932234412</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="F45" t="n">
-        <v>467.1199932234412</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="G45" t="n">
-        <v>316.8795010797664</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="H45" t="n">
-        <v>189.937499414889</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="I45" t="n">
-        <v>81.71626457891406</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="J45" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="K45" t="n">
         <v>68.33819438854637</v>
@@ -7752,25 +7752,25 @@
         <v>795.0597779221278</v>
       </c>
       <c r="S45" t="n">
-        <v>741.979550461183</v>
+        <v>601.6560039672545</v>
       </c>
       <c r="T45" t="n">
-        <v>741.979550461183</v>
+        <v>384.5401913360903</v>
       </c>
       <c r="U45" t="n">
-        <v>740.9769757625796</v>
+        <v>243.1045296065836</v>
       </c>
       <c r="V45" t="n">
-        <v>736.5185624931498</v>
+        <v>238.6461163371539</v>
       </c>
       <c r="W45" t="n">
-        <v>467.1199932234412</v>
+        <v>207.8688518943814</v>
       </c>
       <c r="X45" t="n">
-        <v>467.1199932234412</v>
+        <v>207.8688518943814</v>
       </c>
       <c r="Y45" t="n">
-        <v>467.1199932234412</v>
+        <v>207.8688518943814</v>
       </c>
     </row>
     <row r="46">
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="C46" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="D46" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="E46" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="F46" t="n">
-        <v>125.6681264320642</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="G46" t="n">
-        <v>125.6681264320642</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="H46" t="n">
-        <v>125.6681264320642</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="I46" t="n">
-        <v>125.6681264320642</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="J46" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="K46" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="L46" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="M46" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="N46" t="n">
         <v>145.8690655113003</v>
@@ -7837,19 +7837,19 @@
         <v>145.8690655113003</v>
       </c>
       <c r="U46" t="n">
-        <v>92.91839161032672</v>
+        <v>92.91839161032674</v>
       </c>
       <c r="V46" t="n">
-        <v>83.95483261458621</v>
+        <v>83.95483261458622</v>
       </c>
       <c r="W46" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="X46" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
     </row>
   </sheetData>
@@ -8769,22 +8769,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>131.9742862901105</v>
       </c>
       <c r="L12" t="n">
-        <v>120.3713709098108</v>
+        <v>204.9161881242763</v>
       </c>
       <c r="M12" t="n">
-        <v>158.3434716570122</v>
+        <v>201.1586111617378</v>
       </c>
       <c r="N12" t="n">
-        <v>186.4889234163774</v>
+        <v>183.0729712056916</v>
       </c>
       <c r="O12" t="n">
-        <v>205.1857278322749</v>
+        <v>120.640910617809</v>
       </c>
       <c r="P12" t="n">
-        <v>205.1943705594503</v>
+        <v>205.1943705594499</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9006,22 +9006,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>131.9742862901105</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>120.3713709098108</v>
+        <v>204.9161881242767</v>
       </c>
       <c r="M15" t="n">
-        <v>197.7426589510527</v>
+        <v>201.1586111617382</v>
       </c>
       <c r="N15" t="n">
-        <v>186.4889234163774</v>
+        <v>101.9441062019115</v>
       </c>
       <c r="O15" t="n">
         <v>205.1857278322749</v>
       </c>
       <c r="P15" t="n">
-        <v>205.1943705594503</v>
+        <v>162.3792310547243</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9243,7 +9243,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>131.9742862901105</v>
       </c>
       <c r="L18" t="n">
         <v>204.9161881242767</v>
@@ -9252,13 +9252,13 @@
         <v>201.1586111617382</v>
       </c>
       <c r="N18" t="n">
-        <v>186.4889234163774</v>
+        <v>101.9441062019115</v>
       </c>
       <c r="O18" t="n">
-        <v>120.640910617809</v>
+        <v>201.7697756215894</v>
       </c>
       <c r="P18" t="n">
-        <v>162.3792310547244</v>
+        <v>205.1943705594503</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9480,7 +9480,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.373473584151</v>
+        <v>131.9742862901105</v>
       </c>
       <c r="L21" t="n">
         <v>120.3713709098108</v>
@@ -9489,13 +9489,13 @@
         <v>201.1586111617382</v>
       </c>
       <c r="N21" t="n">
-        <v>186.4889234163774</v>
+        <v>183.0729712056919</v>
       </c>
       <c r="O21" t="n">
         <v>205.1857278322749</v>
       </c>
       <c r="P21" t="n">
-        <v>162.3792310547244</v>
+        <v>205.1943705594503</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9717,22 +9717,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>131.9742862901105</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>120.3713709098108</v>
+        <v>204.9161881242767</v>
       </c>
       <c r="M24" t="n">
-        <v>201.1586111617382</v>
+        <v>158.3434716570122</v>
       </c>
       <c r="N24" t="n">
-        <v>186.4889234163774</v>
+        <v>101.9441062019115</v>
       </c>
       <c r="O24" t="n">
         <v>205.1857278322749</v>
       </c>
       <c r="P24" t="n">
-        <v>201.7784183487648</v>
+        <v>205.1943705594503</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23267,16 +23267,16 @@
         <v>167.3674703354714</v>
       </c>
       <c r="F11" t="n">
-        <v>117.9337501311687</v>
+        <v>199.0878079138487</v>
       </c>
       <c r="G11" t="n">
-        <v>130.1697333157987</v>
+        <v>214.7145505302645</v>
       </c>
       <c r="H11" t="n">
-        <v>142.7852112248182</v>
+        <v>58.24039401035267</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>36.42873081279463</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>23.12798498931284</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>46.03812530998746</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>116.7683418829873</v>
+        <v>32.22352466852175</v>
       </c>
       <c r="W11" t="n">
-        <v>133.7850220996021</v>
+        <v>49.24020488513662</v>
       </c>
       <c r="X11" t="n">
-        <v>71.12645535407549</v>
+        <v>145.5434415082075</v>
       </c>
       <c r="Y11" t="n">
         <v>178.1741256922851</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>3.828222461255137e-13</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.654448148704688</v>
+        <v>1.654448148705058</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>85.43098143720269</v>
+        <v>169.9757986516686</v>
       </c>
       <c r="C14" t="n">
         <v>146.0940556550141</v>
@@ -23504,13 +23504,13 @@
         <v>167.3674703354714</v>
       </c>
       <c r="F14" t="n">
-        <v>124.6207329113472</v>
+        <v>199.0878079138487</v>
       </c>
       <c r="G14" t="n">
-        <v>130.1697333157987</v>
+        <v>214.7145505302646</v>
       </c>
       <c r="H14" t="n">
-        <v>58.2403940103523</v>
+        <v>137.484246521617</v>
       </c>
       <c r="I14" t="n">
         <v>36.42873081279463</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>23.12798498931284</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>18.30111863217985</v>
       </c>
       <c r="U14" t="n">
-        <v>46.03812530998746</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>116.7683418829873</v>
       </c>
       <c r="W14" t="n">
-        <v>133.7850220996021</v>
+        <v>49.24020488513624</v>
       </c>
       <c r="X14" t="n">
-        <v>155.6712725685414</v>
+        <v>71.12645535407547</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.1741256922851</v>
+        <v>93.62930847781924</v>
       </c>
     </row>
     <row r="15">
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.654448148704688</v>
+        <v>1.65444814870466</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>734130.6933253797</v>
+        <v>734130.6933253796</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>734130.6933253797</v>
+        <v>734130.6933253799</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>815787.0955382254</v>
+        <v>815787.0955382251</v>
       </c>
       <c r="C2" t="n">
         <v>815787.0955382249</v>
       </c>
       <c r="D2" t="n">
-        <v>815787.0955382248</v>
+        <v>815787.0955382249</v>
       </c>
       <c r="E2" t="n">
-        <v>702990.8323439431</v>
+        <v>702990.8323439434</v>
       </c>
       <c r="F2" t="n">
-        <v>702990.8323439431</v>
+        <v>702990.8323439432</v>
       </c>
       <c r="G2" t="n">
-        <v>817439.6576941458</v>
+        <v>817439.657694146</v>
       </c>
       <c r="H2" t="n">
         <v>817439.6576941458</v>
       </c>
       <c r="I2" t="n">
-        <v>817439.6576941459</v>
+        <v>817439.657694146</v>
       </c>
       <c r="J2" t="n">
-        <v>817439.6576941455</v>
+        <v>817439.6576941453</v>
       </c>
       <c r="K2" t="n">
         <v>817439.6576941452</v>
       </c>
       <c r="L2" t="n">
-        <v>817439.6576941458</v>
+        <v>817439.6576941457</v>
       </c>
       <c r="M2" t="n">
         <v>817439.6576941463</v>
       </c>
       <c r="N2" t="n">
+        <v>817439.6576941462</v>
+      </c>
+      <c r="O2" t="n">
         <v>817439.6576941463</v>
       </c>
-      <c r="O2" t="n">
-        <v>817439.657694146</v>
-      </c>
       <c r="P2" t="n">
-        <v>817439.6576941463</v>
+        <v>817439.6576941464</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>272248.040755637</v>
+        <v>272248.0407556369</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>105057.1604753343</v>
+        <v>105057.1604753342</v>
       </c>
       <c r="M3" t="n">
-        <v>18715.71856690189</v>
+        <v>18715.71856690177</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65215.19438069724</v>
+        <v>65215.19438069742</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>488407.6697575154</v>
       </c>
       <c r="E4" t="n">
-        <v>382892.3279665353</v>
+        <v>382892.3279665352</v>
       </c>
       <c r="F4" t="n">
         <v>382892.3279665353</v>
@@ -26451,7 +26451,7 @@
         <v>453523.1062128386</v>
       </c>
       <c r="N4" t="n">
-        <v>453523.1062128387</v>
+        <v>453523.1062128386</v>
       </c>
       <c r="O4" t="n">
         <v>453523.1062128386</v>
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24571.35877862008</v>
+        <v>24571.35877862006</v>
       </c>
       <c r="F5" t="n">
         <v>24571.35877862008</v>
       </c>
       <c r="G5" t="n">
-        <v>35611.42180862116</v>
+        <v>35611.42180862117</v>
       </c>
       <c r="H5" t="n">
-        <v>35611.42180862116</v>
+        <v>35611.42180862117</v>
       </c>
       <c r="I5" t="n">
-        <v>35611.42180862116</v>
+        <v>35611.42180862117</v>
       </c>
       <c r="J5" t="n">
         <v>47598.27644989196</v>
@@ -26500,16 +26500,16 @@
         <v>47598.27644989196</v>
       </c>
       <c r="M5" t="n">
-        <v>44424.71624350352</v>
+        <v>44424.71624350353</v>
       </c>
       <c r="N5" t="n">
-        <v>44424.71624350352</v>
+        <v>44424.71624350351</v>
       </c>
       <c r="O5" t="n">
-        <v>44424.71624350352</v>
+        <v>44424.71624350353</v>
       </c>
       <c r="P5" t="n">
-        <v>44424.71624350352</v>
+        <v>44424.71624350353</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>293751.82578071</v>
+        <v>293747.3593965046</v>
       </c>
       <c r="C6" t="n">
-        <v>293751.8257807096</v>
+        <v>293747.3593965044</v>
       </c>
       <c r="D6" t="n">
-        <v>293751.8257807094</v>
+        <v>293747.3593965044</v>
       </c>
       <c r="E6" t="n">
-        <v>23279.10484315071</v>
+        <v>22969.78369355612</v>
       </c>
       <c r="F6" t="n">
-        <v>295527.1455987876</v>
+        <v>295217.8244491927</v>
       </c>
       <c r="G6" t="n">
-        <v>223350.4883292133</v>
+        <v>223350.4883292135</v>
       </c>
       <c r="H6" t="n">
         <v>328407.6488045476</v>
       </c>
       <c r="I6" t="n">
-        <v>328407.6488045477</v>
+        <v>328407.6488045478</v>
       </c>
       <c r="J6" t="n">
-        <v>154788.5768876274</v>
+        <v>154788.5768876271</v>
       </c>
       <c r="K6" t="n">
-        <v>315938.8110413058</v>
+        <v>315938.8110413059</v>
       </c>
       <c r="L6" t="n">
         <v>210881.6505659721</v>
       </c>
       <c r="M6" t="n">
-        <v>300776.1166709024</v>
+        <v>300776.1166709025</v>
       </c>
       <c r="N6" t="n">
         <v>319491.8352378041</v>
@@ -26716,10 +26716,10 @@
         <v>212.8404435700394</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="O2" t="n">
         <v>236.2350917786668</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>84.54481721446589</v>
+        <v>84.54481721446552</v>
       </c>
       <c r="F4" t="n">
-        <v>84.54481721446589</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="G4" t="n">
-        <v>84.54481721446589</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="H4" t="n">
-        <v>84.54481721446589</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="I4" t="n">
-        <v>84.54481721446587</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="J4" t="n">
         <v>451.2073043075446</v>
@@ -26820,16 +26820,16 @@
         <v>451.2073043075446</v>
       </c>
       <c r="M4" t="n">
-        <v>366.6624870930785</v>
+        <v>366.662487093079</v>
       </c>
       <c r="N4" t="n">
-        <v>366.6624870930785</v>
+        <v>366.6624870930786</v>
       </c>
       <c r="O4" t="n">
-        <v>366.6624870930785</v>
+        <v>366.6624870930786</v>
       </c>
       <c r="P4" t="n">
-        <v>366.6624870930785</v>
+        <v>366.6624870930786</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.51899297587161</v>
+        <v>81.5189929758717</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>131.3214505941678</v>
       </c>
       <c r="M2" t="n">
-        <v>23.39464820862736</v>
+        <v>23.39464820862722</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.51899297587156</v>
+        <v>81.51899297587178</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>84.54481721446589</v>
+        <v>84.54481721446552</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.51899297587161</v>
+        <v>81.5189929758717</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>84.54481721446589</v>
+        <v>84.54481721446552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28114,7 +28114,7 @@
         <v>75.7477967501201</v>
       </c>
       <c r="K11" t="n">
-        <v>5.177760637567211</v>
+        <v>85.84516207931827</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,7 +28123,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>6.282602406859837</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -28132,10 +28132,10 @@
         <v>13.34037157088142</v>
       </c>
       <c r="Q11" t="n">
-        <v>165.3513190164616</v>
+        <v>88.39635779869062</v>
       </c>
       <c r="R11" t="n">
-        <v>204.1114417261647</v>
+        <v>194.1163990953234</v>
       </c>
       <c r="S11" t="n">
         <v>204.1114417261647</v>
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>102.9733343099</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28217,16 +28217,16 @@
         <v>134.3151594521598</v>
       </c>
       <c r="S12" t="n">
-        <v>191.4697362153245</v>
+        <v>106.924919000859</v>
       </c>
       <c r="T12" t="n">
         <v>204.1114417261647</v>
       </c>
       <c r="U12" t="n">
-        <v>204.1114417261647</v>
+        <v>190.1539545876248</v>
       </c>
       <c r="V12" t="n">
-        <v>204.1114417261647</v>
+        <v>156.1041037009367</v>
       </c>
       <c r="W12" t="n">
         <v>204.1114417261647</v>
@@ -28235,7 +28235,7 @@
         <v>204.1114417261647</v>
       </c>
       <c r="Y12" t="n">
-        <v>142.1466165623957</v>
+        <v>204.1114417261647</v>
       </c>
     </row>
     <row r="13">
@@ -28245,13 +28245,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>204.1114417261647</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>204.1114417261647</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
@@ -28278,22 +28278,22 @@
         <v>31.33949144013928</v>
       </c>
       <c r="M13" t="n">
-        <v>24.36038278515817</v>
+        <v>75.62635760954598</v>
       </c>
       <c r="N13" t="n">
-        <v>65.14436456839321</v>
+        <v>15.68403999776792</v>
       </c>
       <c r="O13" t="n">
-        <v>121.2514114901319</v>
+        <v>121.2514114901316</v>
       </c>
       <c r="P13" t="n">
-        <v>57.81777162581089</v>
+        <v>142.3625888402764</v>
       </c>
       <c r="Q13" t="n">
         <v>204.1114417261647</v>
       </c>
       <c r="R13" t="n">
-        <v>204.1114417261647</v>
+        <v>203.1842867945871</v>
       </c>
       <c r="S13" t="n">
         <v>204.1114417261647</v>
@@ -28363,13 +28363,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>2.405186634146474</v>
       </c>
       <c r="P14" t="n">
-        <v>15.74555820502786</v>
+        <v>97.88518878534731</v>
       </c>
       <c r="Q14" t="n">
-        <v>172.9411750131565</v>
+        <v>88.39635779869062</v>
       </c>
       <c r="R14" t="n">
         <v>194.1163990953234</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>119.8665974952219</v>
       </c>
       <c r="C15" t="n">
         <v>187.5181515243659</v>
@@ -28448,7 +28448,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.037534323606071</v>
       </c>
       <c r="R15" t="n">
         <v>134.3151594521598</v>
@@ -28457,22 +28457,22 @@
         <v>191.4697362153245</v>
       </c>
       <c r="T15" t="n">
-        <v>204.1114417261647</v>
+        <v>130.3998372903867</v>
       </c>
       <c r="U15" t="n">
         <v>204.1114417261647</v>
       </c>
       <c r="V15" t="n">
-        <v>156.1041037009363</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="W15" t="n">
+        <v>182.1597663625457</v>
+      </c>
+      <c r="X15" t="n">
         <v>204.1114417261647</v>
       </c>
-      <c r="X15" t="n">
-        <v>132.7680972250047</v>
-      </c>
       <c r="Y15" t="n">
-        <v>176.9524818743183</v>
+        <v>204.1114417261647</v>
       </c>
     </row>
     <row r="16">
@@ -28488,13 +28488,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="G16" t="n">
         <v>168.6953110816783</v>
@@ -28506,31 +28506,31 @@
         <v>164.6886553331604</v>
       </c>
       <c r="J16" t="n">
-        <v>119.8533137078861</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="K16" t="n">
         <v>66.39518063773798</v>
       </c>
       <c r="L16" t="n">
-        <v>115.8843086546052</v>
+        <v>31.33949144013928</v>
       </c>
       <c r="M16" t="n">
-        <v>108.9051999996241</v>
+        <v>24.36038278515817</v>
       </c>
       <c r="N16" t="n">
-        <v>15.68403999776792</v>
+        <v>41.65769311807169</v>
       </c>
       <c r="O16" t="n">
-        <v>121.2514114901319</v>
+        <v>36.70659427566602</v>
       </c>
       <c r="P16" t="n">
-        <v>101.8909075496852</v>
+        <v>57.81777162581089</v>
       </c>
       <c r="Q16" t="n">
         <v>126.7594634122124</v>
       </c>
       <c r="R16" t="n">
-        <v>203.1842867945871</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="S16" t="n">
         <v>204.1114417261647</v>
@@ -28585,10 +28585,10 @@
         <v>240.5401725389594</v>
       </c>
       <c r="J17" t="n">
-        <v>75.7477967501201</v>
+        <v>160.292613964586</v>
       </c>
       <c r="K17" t="n">
-        <v>5.177760637567211</v>
+        <v>7.582947271713698</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>194.1163990953234</v>
       </c>
       <c r="S17" t="n">
-        <v>299.6363218529094</v>
+        <v>227.2394267154776</v>
       </c>
       <c r="T17" t="n">
         <v>222.4125603583446</v>
@@ -28621,7 +28621,7 @@
         <v>250.1495670361522</v>
       </c>
       <c r="V17" t="n">
-        <v>335.4328923203325</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
         <v>335.4328923203325</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>102.2834193951642</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -28688,28 +28688,28 @@
         <v>6.037534323606071</v>
       </c>
       <c r="R18" t="n">
-        <v>59.84808444965829</v>
+        <v>49.77034223769392</v>
       </c>
       <c r="S18" t="n">
-        <v>106.9249190008586</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9446545048526</v>
+        <v>130.3998372903867</v>
       </c>
       <c r="U18" t="n">
         <v>237.2276407302841</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>156.1041037009363</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>132.7680972250047</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>138.8394689195597</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -28846,19 +28846,19 @@
         <v>88.39635779869062</v>
       </c>
       <c r="R20" t="n">
-        <v>194.1163990953234</v>
+        <v>278.6612163097893</v>
       </c>
       <c r="S20" t="n">
-        <v>227.2394267154776</v>
+        <v>229.6446133496241</v>
       </c>
       <c r="T20" t="n">
         <v>222.4125603583446</v>
       </c>
       <c r="U20" t="n">
-        <v>322.546462173584</v>
+        <v>250.1495670361522</v>
       </c>
       <c r="V20" t="n">
-        <v>335.4328923203325</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
         <v>335.4328923203325</v>
@@ -28877,13 +28877,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>92.20567718319984</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>84.70524007407697</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28925,7 +28925,7 @@
         <v>6.037534323606071</v>
       </c>
       <c r="R21" t="n">
-        <v>49.77034223769394</v>
+        <v>49.77034223769392</v>
       </c>
       <c r="S21" t="n">
         <v>191.4697362153245</v>
@@ -28937,16 +28937,16 @@
         <v>237.2276407302841</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>156.1041037009363</v>
       </c>
       <c r="W21" t="n">
-        <v>192.2375085745101</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>132.7680972250047</v>
       </c>
       <c r="Y21" t="n">
-        <v>138.8394689195597</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -29077,7 +29077,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.34037157088142</v>
+        <v>97.88518878534732</v>
       </c>
       <c r="Q23" t="n">
         <v>88.39635779869062</v>
@@ -29092,10 +29092,10 @@
         <v>222.4125603583446</v>
       </c>
       <c r="U23" t="n">
-        <v>322.5464621735839</v>
+        <v>250.1495670361522</v>
       </c>
       <c r="V23" t="n">
-        <v>335.4328923203325</v>
+        <v>323.2849702432985</v>
       </c>
       <c r="W23" t="n">
         <v>335.4328923203325</v>
@@ -29114,13 +29114,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>92.20567718319987</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>102.9733343099001</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>74.62749786211268</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
@@ -29138,7 +29138,7 @@
         <v>107.1390224876152</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.8594329553531</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29162,16 +29162,16 @@
         <v>6.037534323606071</v>
       </c>
       <c r="R24" t="n">
-        <v>134.3151594521598</v>
+        <v>49.77034223769392</v>
       </c>
       <c r="S24" t="n">
         <v>191.4697362153245</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9446545048526</v>
+        <v>130.3998372903866</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2276407302841</v>
+        <v>152.6828235158181</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -29180,10 +29180,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>142.845839436969</v>
       </c>
       <c r="Y24" t="n">
-        <v>200.7766440868772</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29302,7 +29302,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="L26" t="n">
-        <v>212.84044357004</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="M26" t="n">
         <v>212.8404435700394</v>
@@ -29354,7 +29354,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29396,13 +29396,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.037534323606071</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3151594521598</v>
+        <v>97.29185280117102</v>
       </c>
       <c r="S27" t="n">
-        <v>191.4697362153245</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>212.8404435700394</v>
@@ -29417,10 +29417,10 @@
         <v>212.8404435700394</v>
       </c>
       <c r="X27" t="n">
-        <v>3.632158425793847</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>212.8404435700394</v>
       </c>
     </row>
     <row r="28">
@@ -29436,7 +29436,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
@@ -29445,7 +29445,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>212.8404435700394</v>
+        <v>168.6953110816783</v>
       </c>
       <c r="H28" t="n">
         <v>165.7758191012691</v>
@@ -29460,7 +29460,7 @@
         <v>66.39518063773798</v>
       </c>
       <c r="L28" t="n">
-        <v>212.8404435700394</v>
+        <v>200.7336742622912</v>
       </c>
       <c r="M28" t="n">
         <v>24.36038278515817</v>
@@ -29469,7 +29469,7 @@
         <v>15.68403999776792</v>
       </c>
       <c r="O28" t="n">
-        <v>48.11248579888564</v>
+        <v>36.70659427566602</v>
       </c>
       <c r="P28" t="n">
         <v>57.81777162581089</v>
@@ -29542,13 +29542,13 @@
         <v>212.8404435700394</v>
       </c>
       <c r="M29" t="n">
-        <v>212.8404435700401</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="N29" t="n">
         <v>212.8404435700394</v>
       </c>
       <c r="O29" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="P29" t="n">
         <v>212.8404435700394</v>
@@ -29600,10 +29600,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7380872222379</v>
       </c>
       <c r="H30" t="n">
         <v>125.6725816482287</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.037534323606071</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.3151594521598</v>
@@ -29642,22 +29642,22 @@
         <v>191.4697362153245</v>
       </c>
       <c r="T30" t="n">
+        <v>9.669692749399672</v>
+      </c>
+      <c r="U30" t="n">
         <v>212.8404435700394</v>
       </c>
-      <c r="U30" t="n">
-        <v>98.35324119792071</v>
-      </c>
       <c r="V30" t="n">
-        <v>212.8404435700394</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>212.8404435700394</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>212.8404435700394</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>212.8404435700394</v>
       </c>
     </row>
     <row r="31">
@@ -29700,16 +29700,16 @@
         <v>31.33949144013928</v>
       </c>
       <c r="M31" t="n">
-        <v>24.36038278515817</v>
+        <v>85.27850963226538</v>
       </c>
       <c r="N31" t="n">
         <v>15.68403999776792</v>
       </c>
       <c r="O31" t="n">
-        <v>118.7358984729183</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="P31" t="n">
-        <v>212.8404435700394</v>
+        <v>57.81777162581089</v>
       </c>
       <c r="Q31" t="n">
         <v>126.7594634122124</v>
@@ -29825,19 +29825,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>31.68464814964761</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>89.96784775144835</v>
       </c>
       <c r="G33" t="n">
         <v>148.7380872222379</v>
@@ -29870,10 +29870,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.037534323606071</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3151594521598</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.4697362153245</v>
@@ -29885,10 +29885,10 @@
         <v>212.8404435700394</v>
       </c>
       <c r="V33" t="n">
-        <v>212.8404435700394</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>212.8404435700394</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>212.8404435700394</v>
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>212.8404435700394</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
         <v>166.4571809719723</v>
@@ -29928,10 +29928,10 @@
         <v>212.8404435700394</v>
       </c>
       <c r="J34" t="n">
-        <v>212.8404435700394</v>
+        <v>119.8533137078861</v>
       </c>
       <c r="K34" t="n">
-        <v>80.02009130634453</v>
+        <v>66.39518063773798</v>
       </c>
       <c r="L34" t="n">
         <v>31.33949144013928</v>
@@ -29940,7 +29940,7 @@
         <v>24.36038278515817</v>
       </c>
       <c r="N34" t="n">
-        <v>15.68403999776792</v>
+        <v>147.8634466581467</v>
       </c>
       <c r="O34" t="n">
         <v>36.70659427566602</v>
@@ -29952,7 +29952,7 @@
         <v>126.7594634122124</v>
       </c>
       <c r="R34" t="n">
-        <v>203.1842867945871</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="S34" t="n">
         <v>212.8404435700394</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="C35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="D35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="E35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="F35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="G35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="H35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="I35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="J35" t="n">
-        <v>236.2350917786668</v>
+        <v>136.2272218199749</v>
       </c>
       <c r="K35" t="n">
-        <v>127.231556756783</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="L35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="M35" t="n">
-        <v>236.2350917786668</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="O35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="P35" t="n">
         <v>13.34037157088142</v>
       </c>
       <c r="Q35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="R35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="S35" t="n">
-        <v>236.2350917786668</v>
+        <v>227.2394267154776</v>
       </c>
       <c r="T35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="U35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="Y35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
     </row>
     <row r="36">
@@ -30065,22 +30065,22 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7380872222379</v>
       </c>
       <c r="H36" t="n">
-        <v>27.61742585825819</v>
+        <v>125.6725816482287</v>
       </c>
       <c r="I36" t="n">
         <v>107.1390224876152</v>
@@ -30119,16 +30119,16 @@
         <v>214.9446545048526</v>
       </c>
       <c r="U36" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V36" t="n">
-        <v>236.2350917786668</v>
+        <v>53.18767591622614</v>
       </c>
       <c r="W36" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30180,16 +30180,16 @@
         <v>15.68403999776792</v>
       </c>
       <c r="O37" t="n">
-        <v>36.70659427566602</v>
+        <v>154.4197928048119</v>
       </c>
       <c r="P37" t="n">
         <v>57.81777162581089</v>
       </c>
       <c r="Q37" t="n">
-        <v>236.2350917786668</v>
+        <v>126.7594634122124</v>
       </c>
       <c r="R37" t="n">
-        <v>211.4218569572781</v>
+        <v>203.1842867945871</v>
       </c>
       <c r="S37" t="n">
         <v>235.3428244409628</v>
@@ -30198,13 +30198,13 @@
         <v>223.7382129287516</v>
       </c>
       <c r="U37" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V37" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W37" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="C38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="D38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="E38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="F38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="G38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="H38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="I38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="J38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="K38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="L38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>141.0540881771059</v>
       </c>
       <c r="O38" t="n">
-        <v>140.5719283276636</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>236.2350917786669</v>
+        <v>13.34037157088142</v>
       </c>
       <c r="Q38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="R38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="S38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="T38" t="n">
-        <v>236.2350917786669</v>
+        <v>222.4125603583446</v>
       </c>
       <c r="U38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="Y38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
     </row>
     <row r="39">
@@ -30299,19 +30299,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>131.8983306799009</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7380872222379</v>
@@ -30350,19 +30350,19 @@
         <v>134.3151594521598</v>
       </c>
       <c r="S39" t="n">
-        <v>191.4697362153245</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9446545048526</v>
+        <v>156.6909329990736</v>
       </c>
       <c r="U39" t="n">
-        <v>236.2350917786669</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>236.2350917786669</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30390,13 +30390,13 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>236.2350917786669</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>189.1003000506034</v>
+        <v>168.6953110816783</v>
       </c>
       <c r="H40" t="n">
-        <v>165.7758191012691</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="I40" t="n">
         <v>164.6886553331604</v>
@@ -30405,7 +30405,7 @@
         <v>119.8533137078861</v>
       </c>
       <c r="K40" t="n">
-        <v>66.39518063773798</v>
+        <v>113.6491064894861</v>
       </c>
       <c r="L40" t="n">
         <v>31.33949144013928</v>
@@ -30435,13 +30435,13 @@
         <v>223.7382129287516</v>
       </c>
       <c r="U40" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V40" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W40" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30481,31 +30481,31 @@
         <v>236.2350917786668</v>
       </c>
       <c r="J41" t="n">
+        <v>75.7477967501201</v>
+      </c>
+      <c r="K41" t="n">
         <v>236.2350917786668</v>
       </c>
-      <c r="K41" t="n">
-        <v>5.177760637567211</v>
-      </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="M41" t="n">
         <v>236.2350917786668</v>
       </c>
       <c r="N41" t="n">
-        <v>135.3941676900973</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="O41" t="n">
         <v>236.2350917786668</v>
       </c>
       <c r="P41" t="n">
-        <v>236.2350917786668</v>
+        <v>13.34037157088142</v>
       </c>
       <c r="Q41" t="n">
-        <v>236.2350917786668</v>
+        <v>88.39635779869062</v>
       </c>
       <c r="R41" t="n">
-        <v>236.2350917786668</v>
+        <v>199.3224939866391</v>
       </c>
       <c r="S41" t="n">
         <v>236.2350917786668</v>
@@ -30554,7 +30554,7 @@
         <v>148.7380872222379</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.6725816482287</v>
       </c>
       <c r="I42" t="n">
         <v>107.1390224876152</v>
@@ -30581,16 +30581,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.037534323606071</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.3151594521598</v>
       </c>
       <c r="S42" t="n">
         <v>191.4697362153245</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>188.6054829177747</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30599,13 +30599,13 @@
         <v>236.2350917786668</v>
       </c>
       <c r="W42" t="n">
-        <v>231.2464722077436</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30639,13 +30639,13 @@
         <v>164.6886553331604</v>
       </c>
       <c r="J43" t="n">
-        <v>119.8533137078861</v>
+        <v>191.1265610653326</v>
       </c>
       <c r="K43" t="n">
         <v>66.39518063773798</v>
       </c>
       <c r="L43" t="n">
-        <v>149.0526899692848</v>
+        <v>31.33949144013928</v>
       </c>
       <c r="M43" t="n">
         <v>24.36038278515817</v>
@@ -30663,13 +30663,13 @@
         <v>126.7594634122124</v>
       </c>
       <c r="R43" t="n">
-        <v>203.1842867945871</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="S43" t="n">
-        <v>235.3428244409628</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="T43" t="n">
-        <v>223.7382129287516</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="U43" t="n">
         <v>236.2350917786668</v>
@@ -30724,19 +30724,19 @@
         <v>236.2350917786668</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>140.5719283276644</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="O44" t="n">
-        <v>236.2350917786668</v>
+        <v>127.2315567567831</v>
       </c>
       <c r="P44" t="n">
-        <v>236.2350917786668</v>
+        <v>13.34037157088142</v>
       </c>
       <c r="Q44" t="n">
         <v>236.2350917786668</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
@@ -30788,16 +30788,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7380872222379</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>125.6725816482287</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>107.1390224876152</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>51.8594329553531</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30824,19 +30824,19 @@
         <v>134.3151594521598</v>
       </c>
       <c r="S45" t="n">
-        <v>138.9203110289892</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9446545048526</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>236.2350917786668</v>
+        <v>97.2063356180725</v>
       </c>
       <c r="V45" t="n">
         <v>236.2350917786668</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30864,7 +30864,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>236.2350917786668</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
         <v>168.6953110816783</v>
@@ -30876,7 +30876,7 @@
         <v>164.6886553331604</v>
       </c>
       <c r="J46" t="n">
-        <v>140.2583026768114</v>
+        <v>119.8533137078861</v>
       </c>
       <c r="K46" t="n">
         <v>66.39518063773798</v>
@@ -30888,7 +30888,7 @@
         <v>24.36038278515817</v>
       </c>
       <c r="N46" t="n">
-        <v>15.68403999776792</v>
+        <v>133.3972385269134</v>
       </c>
       <c r="O46" t="n">
         <v>36.70659427566602</v>
@@ -35410,7 +35410,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>80.66740144175105</v>
       </c>
       <c r="L11" t="n">
         <v>49.11497697927635</v>
@@ -35419,7 +35419,7 @@
         <v>83.8175113773279</v>
       </c>
       <c r="N11" t="n">
-        <v>78.26221480760569</v>
+        <v>84.54481721446552</v>
       </c>
       <c r="O11" t="n">
         <v>36.61860963435582</v>
@@ -35428,10 +35428,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>76.95496121777103</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>9.995042630841304</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.39918729404049</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>84.54481721446552</v>
       </c>
       <c r="M12" t="n">
-        <v>41.72967770973994</v>
+        <v>84.54481721446552</v>
       </c>
       <c r="N12" t="n">
-        <v>84.54481721446589</v>
+        <v>81.12886500378005</v>
       </c>
       <c r="O12" t="n">
-        <v>84.54481721446589</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>84.54481721446589</v>
+        <v>84.54481721446552</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,13 +35541,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.49452106119665</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>58.92879147545403</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -35574,22 +35574,22 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>51.26597482438781</v>
       </c>
       <c r="N13" t="n">
-        <v>49.4603245706253</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>84.54481721446589</v>
+        <v>84.54481721446552</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>84.54481721446552</v>
       </c>
       <c r="Q13" t="n">
         <v>77.35197831395239</v>
       </c>
       <c r="R13" t="n">
-        <v>0.9271549315776983</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35659,13 +35659,13 @@
         <v>78.26221480760569</v>
       </c>
       <c r="O14" t="n">
-        <v>36.61860963435582</v>
+        <v>39.02379626850229</v>
       </c>
       <c r="P14" t="n">
-        <v>2.405186634146444</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="Q14" t="n">
-        <v>84.54481721446589</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.39918729404049</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="M15" t="n">
-        <v>81.12886500378043</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="N15" t="n">
-        <v>84.54481721446589</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>84.54481721446589</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="P15" t="n">
-        <v>84.54481721446589</v>
+        <v>41.7296777097399</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35784,13 +35784,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>58.92879147545403</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>62.43530051393975</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>65.18455950771809</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35802,31 +35802,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>84.25812801827865</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>84.54481721446589</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>84.54481721446589</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>25.97365312030377</v>
       </c>
       <c r="O16" t="n">
-        <v>84.54481721446589</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>44.07313592387433</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.9271549315776983</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>2.405186634146487</v>
       </c>
       <c r="L17" t="n">
         <v>49.11497697927635</v>
@@ -35908,7 +35908,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>72.3968951374318</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -35917,7 +35917,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>14.55310871118053</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.39918729404049</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>84.54481721446589</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="M18" t="n">
-        <v>84.54481721446589</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="N18" t="n">
-        <v>84.54481721446589</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>81.12886500378043</v>
       </c>
       <c r="P18" t="n">
-        <v>41.72967770973995</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36142,19 +36142,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.405186634146473</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>72.3968951374318</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>14.55310871118053</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>39.39918729404049</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>84.54481721446589</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="N21" t="n">
-        <v>84.54481721446589</v>
+        <v>81.12886500378042</v>
       </c>
       <c r="O21" t="n">
-        <v>84.54481721446589</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="P21" t="n">
-        <v>41.72967770973995</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>36.61860963435582</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36388,10 +36388,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>72.39689513743168</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>14.55310871118053</v>
+        <v>2.405186634146473</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.39918729404049</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="M24" t="n">
-        <v>84.54481721446587</v>
+        <v>41.72967770973992</v>
       </c>
       <c r="N24" t="n">
-        <v>84.54481721446587</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>84.54481721446587</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="P24" t="n">
-        <v>81.12886500378035</v>
+        <v>84.54481721446591</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>207.6626829324722</v>
       </c>
       <c r="L26" t="n">
-        <v>261.9554205493163</v>
+        <v>261.9554205493158</v>
       </c>
       <c r="M26" t="n">
         <v>296.6579549473673</v>
@@ -36607,7 +36607,7 @@
         <v>291.1026583776451</v>
       </c>
       <c r="O26" t="n">
-        <v>249.4590532043952</v>
+        <v>249.4590532043953</v>
       </c>
       <c r="P26" t="n">
         <v>199.500071999158</v>
@@ -36616,7 +36616,7 @@
         <v>124.4440857713488</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72404447471597</v>
+        <v>18.724044474716</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,7 +36732,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>67.65779331932873</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36741,7 +36741,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>44.1451324883611</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>181.5009521299001</v>
+        <v>169.3941828221519</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36765,7 +36765,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>11.40589152321963</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36838,13 +36838,13 @@
         <v>261.9554205493158</v>
       </c>
       <c r="M29" t="n">
-        <v>296.657954947368</v>
+        <v>296.6579549473673</v>
       </c>
       <c r="N29" t="n">
         <v>291.1026583776451</v>
       </c>
       <c r="O29" t="n">
-        <v>249.4590532043952</v>
+        <v>249.4590532043953</v>
       </c>
       <c r="P29" t="n">
         <v>199.500071999158</v>
@@ -36853,7 +36853,7 @@
         <v>124.4440857713488</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72404447471597</v>
+        <v>18.724044474716</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36996,16 +36996,16 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>60.91812684710721</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>82.02930419725232</v>
+        <v>176.1338492943734</v>
       </c>
       <c r="P31" t="n">
-        <v>155.0226719442285</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37200,7 +37200,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.22352290507135</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>48.15178823687904</v>
       </c>
       <c r="J34" t="n">
-        <v>92.98712986215335</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>13.62491066860655</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>132.1794066603788</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.656156775452397</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>160.4872950285467</v>
+        <v>60.47942506985484</v>
       </c>
       <c r="K35" t="n">
-        <v>122.0537961192158</v>
+        <v>231.0573311410994</v>
       </c>
       <c r="L35" t="n">
-        <v>285.3500687579432</v>
+        <v>285.350068757943</v>
       </c>
       <c r="M35" t="n">
-        <v>320.0526031559947</v>
+        <v>83.8175113773279</v>
       </c>
       <c r="N35" t="n">
-        <v>78.26221480760569</v>
+        <v>314.4973065862723</v>
       </c>
       <c r="O35" t="n">
-        <v>272.8537014130226</v>
+        <v>272.8537014130225</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>147.8387339799762</v>
+        <v>147.838733979976</v>
       </c>
       <c r="R35" t="n">
-        <v>42.11869268334336</v>
+        <v>42.11869268334322</v>
       </c>
       <c r="S35" t="n">
-        <v>8.995665063189213</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>13.82253142032221</v>
+        <v>13.82253142032206</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37476,16 +37476,16 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>117.7131985291459</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>109.4756283664544</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>8.237570162691037</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37540,37 +37540,37 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>160.4872950285468</v>
+        <v>160.4872950285466</v>
       </c>
       <c r="K38" t="n">
-        <v>231.0573311410996</v>
+        <v>231.0573311410995</v>
       </c>
       <c r="L38" t="n">
-        <v>285.3500687579432</v>
+        <v>285.3500687579431</v>
       </c>
       <c r="M38" t="n">
-        <v>83.8175113773279</v>
+        <v>320.0526031559946</v>
       </c>
       <c r="N38" t="n">
-        <v>78.26221480760569</v>
+        <v>219.3163029847115</v>
       </c>
       <c r="O38" t="n">
-        <v>177.1905379620194</v>
+        <v>36.61860963435582</v>
       </c>
       <c r="P38" t="n">
-        <v>222.8947202077854</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>147.8387339799762</v>
+        <v>147.8387339799761</v>
       </c>
       <c r="R38" t="n">
-        <v>42.11869268334342</v>
+        <v>42.11869268334328</v>
       </c>
       <c r="S38" t="n">
-        <v>8.99566506318927</v>
+        <v>8.995665063189128</v>
       </c>
       <c r="T38" t="n">
-        <v>13.82253142032226</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37686,13 +37686,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>97.30820956022021</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>20.4049889689251</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>70.45927267739764</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>47.25392585174813</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>160.4872950285467</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>231.0573311410996</v>
       </c>
       <c r="L41" t="n">
-        <v>49.11497697927635</v>
+        <v>285.3500687579432</v>
       </c>
       <c r="M41" t="n">
         <v>320.0526031559947</v>
       </c>
       <c r="N41" t="n">
-        <v>213.656382497703</v>
+        <v>314.4973065862725</v>
       </c>
       <c r="O41" t="n">
         <v>272.8537014130226</v>
       </c>
       <c r="P41" t="n">
-        <v>222.8947202077854</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>147.8387339799762</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>42.11869268334336</v>
+        <v>5.206094891315677</v>
       </c>
       <c r="S41" t="n">
         <v>8.995665063189213</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>71.27324735744654</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>117.7131985291455</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -37959,13 +37959,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>33.05080498407975</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>0.8922673377040371</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>12.49687884991519</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38020,19 +38020,19 @@
         <v>231.0573311410996</v>
       </c>
       <c r="L44" t="n">
-        <v>49.11497697927635</v>
+        <v>285.3500687579432</v>
       </c>
       <c r="M44" t="n">
         <v>83.8175113773279</v>
       </c>
       <c r="N44" t="n">
-        <v>218.8341431352701</v>
+        <v>314.4973065862725</v>
       </c>
       <c r="O44" t="n">
-        <v>272.8537014130226</v>
+        <v>163.850166391139</v>
       </c>
       <c r="P44" t="n">
-        <v>222.8947202077854</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>147.8387339799762</v>
@@ -38160,7 +38160,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>97.30820956022015</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.40498896892533</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>117.7131985291455</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
